--- a/salidas/retiros.xlsx
+++ b/salidas/retiros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B712"/>
+  <dimension ref="A1:B767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4470</v>
+        <v>45</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4476</v>
+        <v>4470</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4480</v>
+        <v>61</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4489</v>
+        <v>4476</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4510</v>
+        <v>4480</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4516</v>
+        <v>75</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4519</v>
+        <v>4489</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4521</v>
+        <v>4510</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4523</v>
+        <v>4516</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4531</v>
+        <v>4519</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4535</v>
+        <v>4521</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4538</v>
+        <v>4523</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4558</v>
+        <v>4531</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4567</v>
+        <v>4535</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4568</v>
+        <v>4538</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4574</v>
+        <v>142</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4575</v>
+        <v>4558</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4588</v>
+        <v>4567</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4589</v>
+        <v>4568</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4592</v>
+        <v>4574</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4593</v>
+        <v>4575</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4596</v>
+        <v>4588</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4606</v>
+        <v>4589</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4610</v>
+        <v>4592</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4616</v>
+        <v>4593</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4622</v>
+        <v>4596</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4632</v>
+        <v>4606</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4633</v>
+        <v>4610</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4635</v>
+        <v>4616</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4648</v>
+        <v>4622</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4657</v>
+        <v>4632</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4666</v>
+        <v>4633</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4667</v>
+        <v>4635</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4678</v>
+        <v>4648</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4681</v>
+        <v>4657</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4693</v>
+        <v>4666</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4700</v>
+        <v>4667</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4715</v>
+        <v>4678</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4719</v>
+        <v>4681</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4721</v>
+        <v>4693</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4726</v>
+        <v>4700</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4738</v>
+        <v>4715</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4742</v>
+        <v>4719</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4744</v>
+        <v>4721</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4748</v>
+        <v>4726</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4751</v>
+        <v>4738</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4760</v>
+        <v>4742</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4761</v>
+        <v>4744</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4767</v>
+        <v>4748</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4789</v>
+        <v>4751</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4798</v>
+        <v>4760</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4809</v>
+        <v>4761</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4813</v>
+        <v>4767</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4815</v>
+        <v>363</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4816</v>
+        <v>366</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4819</v>
+        <v>4789</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4820</v>
+        <v>382</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4822</v>
+        <v>4798</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4836</v>
+        <v>4809</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4841</v>
+        <v>4813</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4842</v>
+        <v>4815</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4846</v>
+        <v>4816</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4848</v>
+        <v>4819</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4853</v>
+        <v>4820</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4859</v>
+        <v>4822</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4862</v>
+        <v>4836</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4864</v>
+        <v>4841</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4873</v>
+        <v>4842</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4878</v>
+        <v>4846</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4884</v>
+        <v>4848</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4885</v>
+        <v>4853</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4897</v>
+        <v>4859</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4901</v>
+        <v>4862</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4902</v>
+        <v>4864</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4905</v>
+        <v>4873</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4914</v>
+        <v>4878</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4915</v>
+        <v>4884</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4929</v>
+        <v>4885</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4930</v>
+        <v>4897</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4932</v>
+        <v>4901</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4933</v>
+        <v>4902</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4942</v>
+        <v>4905</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4944</v>
+        <v>4914</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4945</v>
+        <v>4915</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4949</v>
+        <v>4929</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4950</v>
+        <v>4930</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4951</v>
+        <v>4932</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4953</v>
+        <v>4933</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4954</v>
+        <v>4942</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4966</v>
+        <v>4944</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4981</v>
+        <v>4945</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4982</v>
+        <v>4949</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4984</v>
+        <v>4950</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>4989</v>
+        <v>4951</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4991</v>
+        <v>4953</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4995</v>
+        <v>4954</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>5002</v>
+        <v>4966</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5010</v>
+        <v>4981</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5013</v>
+        <v>4982</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5017</v>
+        <v>4984</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5024</v>
+        <v>4989</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5045</v>
+        <v>4991</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5064</v>
+        <v>4995</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5066</v>
+        <v>5002</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5068</v>
+        <v>5010</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5081</v>
+        <v>5013</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5085</v>
+        <v>5017</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5092</v>
+        <v>5024</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5093</v>
+        <v>5045</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5099</v>
+        <v>5064</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5100</v>
+        <v>5066</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5105</v>
+        <v>5068</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>5106</v>
+        <v>5081</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5119</v>
+        <v>5085</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5128</v>
+        <v>5092</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5133</v>
+        <v>5093</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>5134</v>
+        <v>5099</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>5138</v>
+        <v>5100</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5150</v>
+        <v>5106</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>5159</v>
+        <v>5119</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>5160</v>
+        <v>5128</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5165</v>
+        <v>5133</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5169</v>
+        <v>5134</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5174</v>
+        <v>5138</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5184</v>
+        <v>733</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5185</v>
+        <v>734</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5186</v>
+        <v>5150</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>5189</v>
+        <v>747</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5192</v>
+        <v>5159</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>5209</v>
+        <v>5160</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5210</v>
+        <v>5165</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5211</v>
+        <v>5169</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5213</v>
+        <v>5174</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5221</v>
+        <v>5184</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5230</v>
+        <v>5185</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5236</v>
+        <v>5186</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>5238</v>
+        <v>5189</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5259</v>
+        <v>5192</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>5263</v>
+        <v>5209</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5264</v>
+        <v>5210</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5265</v>
+        <v>5211</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>5289</v>
+        <v>5213</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>5306</v>
+        <v>809</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>5315</v>
+        <v>810</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>5320</v>
+        <v>5221</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>5324</v>
+        <v>5230</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>5339</v>
+        <v>5236</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>5354</v>
+        <v>5238</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>5357</v>
+        <v>5259</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>5358</v>
+        <v>5263</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>5366</v>
+        <v>5264</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>5375</v>
+        <v>5265</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>5376</v>
+        <v>875</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>5389</v>
+        <v>5289</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>5390</v>
+        <v>5306</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>5399</v>
+        <v>5315</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>5402</v>
+        <v>5320</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>5408</v>
+        <v>5324</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>5410</v>
+        <v>5339</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>5415</v>
+        <v>936</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>5424</v>
+        <v>5354</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>5426</v>
+        <v>5357</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>5432</v>
+        <v>5358</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>5434</v>
+        <v>5366</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>5443</v>
+        <v>5375</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>5444</v>
+        <v>5376</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>5450</v>
+        <v>5389</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>5451</v>
+        <v>5390</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>5465</v>
+        <v>5399</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>5466</v>
+        <v>5402</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>5479</v>
+        <v>5408</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>5485</v>
+        <v>5410</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>5486</v>
+        <v>5415</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>5491</v>
+        <v>5424</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>5492</v>
+        <v>5426</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>5506</v>
+        <v>5432</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>5507</v>
+        <v>5434</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>5518</v>
+        <v>5443</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>5522</v>
+        <v>5444</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>5528</v>
+        <v>5450</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>5532</v>
+        <v>5451</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>5543</v>
+        <v>5465</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>5548</v>
+        <v>5466</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5549</v>
+        <v>5479</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>5591</v>
+        <v>5485</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>5595</v>
+        <v>5486</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>5597</v>
+        <v>5491</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>5605</v>
+        <v>5492</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>5614</v>
+        <v>5506</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>5623</v>
+        <v>5507</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>5625</v>
+        <v>5518</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>5637</v>
+        <v>5522</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>5644</v>
+        <v>5528</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>5647</v>
+        <v>5532</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>5649</v>
+        <v>1125</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>5656</v>
+        <v>5543</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>5657</v>
+        <v>5548</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>5659</v>
+        <v>5549</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>5665</v>
+        <v>1169</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>5668</v>
+        <v>5591</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>5673</v>
+        <v>5595</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>5674</v>
+        <v>5597</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>5692</v>
+        <v>5605</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>5712</v>
+        <v>1203</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>5723</v>
+        <v>5614</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>5725</v>
+        <v>5623</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>5730</v>
+        <v>5625</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>5734</v>
+        <v>5637</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>5745</v>
+        <v>5644</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>5747</v>
+        <v>5647</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>5749</v>
+        <v>5649</v>
       </c>
       <c r="B219" t="n">
         <v>1</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>5750</v>
+        <v>5656</v>
       </c>
       <c r="B220" t="n">
         <v>1</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>5755</v>
+        <v>5657</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>5759</v>
+        <v>1252</v>
       </c>
       <c r="B222" t="n">
         <v>1</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>5763</v>
+        <v>5665</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>5794</v>
+        <v>5668</v>
       </c>
       <c r="B224" t="n">
         <v>1</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>5800</v>
+        <v>5673</v>
       </c>
       <c r="B225" t="n">
         <v>1</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>5805</v>
+        <v>5674</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>5815</v>
+        <v>5692</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>5827</v>
+        <v>1285</v>
       </c>
       <c r="B228" t="n">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>5828</v>
+        <v>5712</v>
       </c>
       <c r="B229" t="n">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>5833</v>
+        <v>5723</v>
       </c>
       <c r="B230" t="n">
         <v>1</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>5837</v>
+        <v>5725</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>5839</v>
+        <v>5730</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>5840</v>
+        <v>5734</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>5852</v>
+        <v>5745</v>
       </c>
       <c r="B234" t="n">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>5857</v>
+        <v>5747</v>
       </c>
       <c r="B235" t="n">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>5859</v>
+        <v>5749</v>
       </c>
       <c r="B236" t="n">
         <v>1</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>5862</v>
+        <v>5750</v>
       </c>
       <c r="B237" t="n">
         <v>1</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>5873</v>
+        <v>5755</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>5882</v>
+        <v>5759</v>
       </c>
       <c r="B239" t="n">
         <v>1</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>5887</v>
+        <v>5763</v>
       </c>
       <c r="B240" t="n">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>5894</v>
+        <v>5794</v>
       </c>
       <c r="B241" t="n">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>5909</v>
+        <v>5800</v>
       </c>
       <c r="B242" t="n">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>5911</v>
+        <v>5805</v>
       </c>
       <c r="B243" t="n">
         <v>1</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>5916</v>
+        <v>1397</v>
       </c>
       <c r="B244" t="n">
         <v>1</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>5919</v>
+        <v>5815</v>
       </c>
       <c r="B245" t="n">
         <v>1</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>5940</v>
+        <v>5827</v>
       </c>
       <c r="B246" t="n">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>5946</v>
+        <v>5828</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>5950</v>
+        <v>5833</v>
       </c>
       <c r="B248" t="n">
         <v>1</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>5959</v>
+        <v>5837</v>
       </c>
       <c r="B249" t="n">
         <v>1</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>5980</v>
+        <v>5839</v>
       </c>
       <c r="B250" t="n">
         <v>1</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>5986</v>
+        <v>5840</v>
       </c>
       <c r="B251" t="n">
         <v>1</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>5989</v>
+        <v>5852</v>
       </c>
       <c r="B252" t="n">
         <v>1</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>5991</v>
+        <v>5857</v>
       </c>
       <c r="B253" t="n">
         <v>1</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>5993</v>
+        <v>5859</v>
       </c>
       <c r="B254" t="n">
         <v>1</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>6001</v>
+        <v>5862</v>
       </c>
       <c r="B255" t="n">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>6005</v>
+        <v>5873</v>
       </c>
       <c r="B256" t="n">
         <v>1</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>6008</v>
+        <v>5882</v>
       </c>
       <c r="B257" t="n">
         <v>1</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>6028</v>
+        <v>5887</v>
       </c>
       <c r="B258" t="n">
         <v>1</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>6037</v>
+        <v>5894</v>
       </c>
       <c r="B259" t="n">
         <v>1</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>6038</v>
+        <v>5909</v>
       </c>
       <c r="B260" t="n">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>6044</v>
+        <v>5911</v>
       </c>
       <c r="B261" t="n">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>6045</v>
+        <v>5916</v>
       </c>
       <c r="B262" t="n">
         <v>1</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>6058</v>
+        <v>5919</v>
       </c>
       <c r="B263" t="n">
         <v>1</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>6059</v>
+        <v>1515</v>
       </c>
       <c r="B264" t="n">
         <v>1</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>6062</v>
+        <v>5940</v>
       </c>
       <c r="B265" t="n">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>6063</v>
+        <v>1531</v>
       </c>
       <c r="B266" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>6066</v>
+        <v>5946</v>
       </c>
       <c r="B267" t="n">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>6076</v>
+        <v>5950</v>
       </c>
       <c r="B268" t="n">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>6080</v>
+        <v>1545</v>
       </c>
       <c r="B269" t="n">
         <v>1</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>6086</v>
+        <v>5959</v>
       </c>
       <c r="B270" t="n">
         <v>1</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>6092</v>
+        <v>5980</v>
       </c>
       <c r="B271" t="n">
         <v>1</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>6102</v>
+        <v>5986</v>
       </c>
       <c r="B272" t="n">
         <v>1</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>6103</v>
+        <v>5989</v>
       </c>
       <c r="B273" t="n">
         <v>1</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>6105</v>
+        <v>5991</v>
       </c>
       <c r="B274" t="n">
         <v>1</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>6118</v>
+        <v>5993</v>
       </c>
       <c r="B275" t="n">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>6127</v>
+        <v>6001</v>
       </c>
       <c r="B276" t="n">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>6136</v>
+        <v>6005</v>
       </c>
       <c r="B277" t="n">
         <v>1</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>6137</v>
+        <v>6008</v>
       </c>
       <c r="B278" t="n">
         <v>1</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>6148</v>
+        <v>1612</v>
       </c>
       <c r="B279" t="n">
         <v>1</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>6151</v>
+        <v>6028</v>
       </c>
       <c r="B280" t="n">
         <v>1</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>6163</v>
+        <v>6037</v>
       </c>
       <c r="B281" t="n">
         <v>1</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>6170</v>
+        <v>6038</v>
       </c>
       <c r="B282" t="n">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>6185</v>
+        <v>6044</v>
       </c>
       <c r="B283" t="n">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>6189</v>
+        <v>6045</v>
       </c>
       <c r="B284" t="n">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>6191</v>
+        <v>6058</v>
       </c>
       <c r="B285" t="n">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>6196</v>
+        <v>6059</v>
       </c>
       <c r="B286" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>6208</v>
+        <v>6062</v>
       </c>
       <c r="B287" t="n">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>6212</v>
+        <v>6063</v>
       </c>
       <c r="B288" t="n">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>6214</v>
+        <v>6066</v>
       </c>
       <c r="B289" t="n">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>6218</v>
+        <v>6076</v>
       </c>
       <c r="B290" t="n">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>6221</v>
+        <v>6080</v>
       </c>
       <c r="B291" t="n">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>6230</v>
+        <v>6086</v>
       </c>
       <c r="B292" t="n">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>6231</v>
+        <v>6092</v>
       </c>
       <c r="B293" t="n">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>6237</v>
+        <v>6102</v>
       </c>
       <c r="B294" t="n">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>6259</v>
+        <v>6103</v>
       </c>
       <c r="B295" t="n">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>6268</v>
+        <v>6105</v>
       </c>
       <c r="B296" t="n">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>6279</v>
+        <v>6118</v>
       </c>
       <c r="B297" t="n">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>6283</v>
+        <v>6127</v>
       </c>
       <c r="B298" t="n">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>6285</v>
+        <v>6136</v>
       </c>
       <c r="B299" t="n">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>6286</v>
+        <v>6137</v>
       </c>
       <c r="B300" t="n">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>6289</v>
+        <v>6148</v>
       </c>
       <c r="B301" t="n">
         <v>1</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>6290</v>
+        <v>6151</v>
       </c>
       <c r="B302" t="n">
         <v>1</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>6292</v>
+        <v>6163</v>
       </c>
       <c r="B303" t="n">
         <v>1</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>6306</v>
+        <v>6170</v>
       </c>
       <c r="B304" t="n">
         <v>1</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>6311</v>
+        <v>6185</v>
       </c>
       <c r="B305" t="n">
         <v>1</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>6312</v>
+        <v>6189</v>
       </c>
       <c r="B306" t="n">
         <v>1</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>6316</v>
+        <v>6191</v>
       </c>
       <c r="B307" t="n">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>6318</v>
+        <v>6196</v>
       </c>
       <c r="B308" t="n">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>6323</v>
+        <v>6208</v>
       </c>
       <c r="B309" t="n">
         <v>1</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>6329</v>
+        <v>6212</v>
       </c>
       <c r="B310" t="n">
         <v>1</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>6332</v>
+        <v>6214</v>
       </c>
       <c r="B311" t="n">
         <v>1</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>6334</v>
+        <v>6218</v>
       </c>
       <c r="B312" t="n">
         <v>1</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>6343</v>
+        <v>6221</v>
       </c>
       <c r="B313" t="n">
         <v>1</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>6348</v>
+        <v>6230</v>
       </c>
       <c r="B314" t="n">
         <v>1</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>6354</v>
+        <v>6231</v>
       </c>
       <c r="B315" t="n">
         <v>1</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>6355</v>
+        <v>6237</v>
       </c>
       <c r="B316" t="n">
         <v>1</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>6367</v>
+        <v>1833</v>
       </c>
       <c r="B317" t="n">
         <v>1</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>6371</v>
+        <v>1836</v>
       </c>
       <c r="B318" t="n">
         <v>1</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>6372</v>
+        <v>6259</v>
       </c>
       <c r="B319" t="n">
         <v>1</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>6375</v>
+        <v>1852</v>
       </c>
       <c r="B320" t="n">
         <v>1</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>6384</v>
+        <v>6268</v>
       </c>
       <c r="B321" t="n">
         <v>1</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>6385</v>
+        <v>6279</v>
       </c>
       <c r="B322" t="n">
         <v>1</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>6399</v>
+        <v>6283</v>
       </c>
       <c r="B323" t="n">
         <v>1</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>6400</v>
+        <v>6285</v>
       </c>
       <c r="B324" t="n">
         <v>1</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>6402</v>
+        <v>6286</v>
       </c>
       <c r="B325" t="n">
         <v>1</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>6403</v>
+        <v>6289</v>
       </c>
       <c r="B326" t="n">
         <v>1</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>6412</v>
+        <v>6290</v>
       </c>
       <c r="B327" t="n">
         <v>1</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>6414</v>
+        <v>6292</v>
       </c>
       <c r="B328" t="n">
         <v>1</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>6415</v>
+        <v>6306</v>
       </c>
       <c r="B329" t="n">
         <v>1</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>6419</v>
+        <v>6311</v>
       </c>
       <c r="B330" t="n">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>6420</v>
+        <v>6312</v>
       </c>
       <c r="B331" t="n">
         <v>1</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>6421</v>
+        <v>6316</v>
       </c>
       <c r="B332" t="n">
         <v>1</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>6423</v>
+        <v>6318</v>
       </c>
       <c r="B333" t="n">
         <v>1</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>6424</v>
+        <v>6323</v>
       </c>
       <c r="B334" t="n">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>6436</v>
+        <v>6329</v>
       </c>
       <c r="B335" t="n">
         <v>1</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>6451</v>
+        <v>6332</v>
       </c>
       <c r="B336" t="n">
         <v>1</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>6452</v>
+        <v>6334</v>
       </c>
       <c r="B337" t="n">
         <v>1</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>6454</v>
+        <v>6343</v>
       </c>
       <c r="B338" t="n">
         <v>1</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>6459</v>
+        <v>6348</v>
       </c>
       <c r="B339" t="n">
         <v>1</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>6461</v>
+        <v>6354</v>
       </c>
       <c r="B340" t="n">
         <v>1</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>6465</v>
+        <v>6355</v>
       </c>
       <c r="B341" t="n">
         <v>1</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>6472</v>
+        <v>6367</v>
       </c>
       <c r="B342" t="n">
         <v>1</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>6480</v>
+        <v>6371</v>
       </c>
       <c r="B343" t="n">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>6483</v>
+        <v>6372</v>
       </c>
       <c r="B344" t="n">
         <v>1</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>6487</v>
+        <v>6375</v>
       </c>
       <c r="B345" t="n">
         <v>1</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>6494</v>
+        <v>6384</v>
       </c>
       <c r="B346" t="n">
         <v>1</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>6515</v>
+        <v>6385</v>
       </c>
       <c r="B347" t="n">
         <v>1</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>6534</v>
+        <v>6399</v>
       </c>
       <c r="B348" t="n">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>6536</v>
+        <v>6400</v>
       </c>
       <c r="B349" t="n">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>6538</v>
+        <v>6402</v>
       </c>
       <c r="B350" t="n">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>6551</v>
+        <v>6403</v>
       </c>
       <c r="B351" t="n">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>6555</v>
+        <v>6412</v>
       </c>
       <c r="B352" t="n">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>6562</v>
+        <v>6414</v>
       </c>
       <c r="B353" t="n">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>6563</v>
+        <v>6415</v>
       </c>
       <c r="B354" t="n">
         <v>1</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>6569</v>
+        <v>6419</v>
       </c>
       <c r="B355" t="n">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>6570</v>
+        <v>6420</v>
       </c>
       <c r="B356" t="n">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>6575</v>
+        <v>6421</v>
       </c>
       <c r="B357" t="n">
         <v>1</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>6576</v>
+        <v>6423</v>
       </c>
       <c r="B358" t="n">
         <v>1</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>6589</v>
+        <v>6424</v>
       </c>
       <c r="B359" t="n">
         <v>1</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>6598</v>
+        <v>6436</v>
       </c>
       <c r="B360" t="n">
         <v>1</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>6603</v>
+        <v>6451</v>
       </c>
       <c r="B361" t="n">
         <v>1</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>6604</v>
+        <v>6452</v>
       </c>
       <c r="B362" t="n">
         <v>1</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>6608</v>
+        <v>6454</v>
       </c>
       <c r="B363" t="n">
         <v>1</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>6620</v>
+        <v>6459</v>
       </c>
       <c r="B364" t="n">
         <v>1</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>6629</v>
+        <v>6461</v>
       </c>
       <c r="B365" t="n">
         <v>1</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>6630</v>
+        <v>6465</v>
       </c>
       <c r="B366" t="n">
         <v>1</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>6635</v>
+        <v>6472</v>
       </c>
       <c r="B367" t="n">
         <v>1</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>6639</v>
+        <v>6480</v>
       </c>
       <c r="B368" t="n">
         <v>1</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>6644</v>
+        <v>6483</v>
       </c>
       <c r="B369" t="n">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>6654</v>
+        <v>6487</v>
       </c>
       <c r="B370" t="n">
         <v>1</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>6655</v>
+        <v>6494</v>
       </c>
       <c r="B371" t="n">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>6656</v>
+        <v>6515</v>
       </c>
       <c r="B372" t="n">
         <v>1</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>6659</v>
+        <v>6534</v>
       </c>
       <c r="B373" t="n">
         <v>1</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>6662</v>
+        <v>6536</v>
       </c>
       <c r="B374" t="n">
         <v>1</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>6679</v>
+        <v>6538</v>
       </c>
       <c r="B375" t="n">
         <v>1</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>6680</v>
+        <v>6551</v>
       </c>
       <c r="B376" t="n">
         <v>1</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>6681</v>
+        <v>6555</v>
       </c>
       <c r="B377" t="n">
         <v>1</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>6683</v>
+        <v>6562</v>
       </c>
       <c r="B378" t="n">
         <v>1</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>6691</v>
+        <v>6563</v>
       </c>
       <c r="B379" t="n">
         <v>1</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>6700</v>
+        <v>6569</v>
       </c>
       <c r="B380" t="n">
         <v>1</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>6706</v>
+        <v>6570</v>
       </c>
       <c r="B381" t="n">
         <v>1</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>6708</v>
+        <v>6576</v>
       </c>
       <c r="B382" t="n">
         <v>1</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>6729</v>
+        <v>6589</v>
       </c>
       <c r="B383" t="n">
         <v>1</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>6733</v>
+        <v>6598</v>
       </c>
       <c r="B384" t="n">
         <v>1</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>6734</v>
+        <v>6603</v>
       </c>
       <c r="B385" t="n">
         <v>1</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>6735</v>
+        <v>6604</v>
       </c>
       <c r="B386" t="n">
         <v>1</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>6759</v>
+        <v>6608</v>
       </c>
       <c r="B387" t="n">
         <v>1</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>6776</v>
+        <v>2203</v>
       </c>
       <c r="B388" t="n">
         <v>1</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>6785</v>
+        <v>2204</v>
       </c>
       <c r="B389" t="n">
         <v>1</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>6790</v>
+        <v>6620</v>
       </c>
       <c r="B390" t="n">
         <v>1</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>6794</v>
+        <v>2217</v>
       </c>
       <c r="B391" t="n">
         <v>1</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>6809</v>
+        <v>6629</v>
       </c>
       <c r="B392" t="n">
         <v>1</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>6824</v>
+        <v>6630</v>
       </c>
       <c r="B393" t="n">
         <v>1</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>6827</v>
+        <v>6635</v>
       </c>
       <c r="B394" t="n">
         <v>1</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>6828</v>
+        <v>6639</v>
       </c>
       <c r="B395" t="n">
         <v>1</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>6836</v>
+        <v>6644</v>
       </c>
       <c r="B396" t="n">
         <v>1</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>6845</v>
+        <v>6654</v>
       </c>
       <c r="B397" t="n">
         <v>1</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>6846</v>
+        <v>6655</v>
       </c>
       <c r="B398" t="n">
         <v>1</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>6859</v>
+        <v>6656</v>
       </c>
       <c r="B399" t="n">
         <v>1</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>6860</v>
+        <v>6659</v>
       </c>
       <c r="B400" t="n">
         <v>1</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>6869</v>
+        <v>6662</v>
       </c>
       <c r="B401" t="n">
         <v>1</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>6872</v>
+        <v>6679</v>
       </c>
       <c r="B402" t="n">
         <v>1</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>6878</v>
+        <v>6680</v>
       </c>
       <c r="B403" t="n">
         <v>1</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>6880</v>
+        <v>6681</v>
       </c>
       <c r="B404" t="n">
         <v>1</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>6885</v>
+        <v>6683</v>
       </c>
       <c r="B405" t="n">
         <v>1</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>6894</v>
+        <v>2279</v>
       </c>
       <c r="B406" t="n">
         <v>1</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>6896</v>
+        <v>2280</v>
       </c>
       <c r="B407" t="n">
         <v>1</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>6902</v>
+        <v>6691</v>
       </c>
       <c r="B408" t="n">
         <v>1</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>6904</v>
+        <v>6700</v>
       </c>
       <c r="B409" t="n">
         <v>1</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>6913</v>
+        <v>6706</v>
       </c>
       <c r="B410" t="n">
         <v>1</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>6914</v>
+        <v>6708</v>
       </c>
       <c r="B411" t="n">
         <v>1</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>6920</v>
+        <v>6729</v>
       </c>
       <c r="B412" t="n">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>6921</v>
+        <v>6733</v>
       </c>
       <c r="B413" t="n">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>6935</v>
+        <v>6734</v>
       </c>
       <c r="B414" t="n">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>6936</v>
+        <v>6735</v>
       </c>
       <c r="B415" t="n">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>6949</v>
+        <v>2345</v>
       </c>
       <c r="B416" t="n">
         <v>1</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>6955</v>
+        <v>6759</v>
       </c>
       <c r="B417" t="n">
         <v>1</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>6956</v>
+        <v>6776</v>
       </c>
       <c r="B418" t="n">
         <v>1</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>6961</v>
+        <v>6785</v>
       </c>
       <c r="B419" t="n">
         <v>1</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>6962</v>
+        <v>6790</v>
       </c>
       <c r="B420" t="n">
         <v>1</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>6976</v>
+        <v>6794</v>
       </c>
       <c r="B421" t="n">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>6977</v>
+        <v>6809</v>
       </c>
       <c r="B422" t="n">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>6988</v>
+        <v>2406</v>
       </c>
       <c r="B423" t="n">
         <v>1</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>6992</v>
+        <v>6824</v>
       </c>
       <c r="B424" t="n">
         <v>1</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>6998</v>
+        <v>6827</v>
       </c>
       <c r="B425" t="n">
         <v>1</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>7002</v>
+        <v>6828</v>
       </c>
       <c r="B426" t="n">
         <v>1</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>7013</v>
+        <v>6836</v>
       </c>
       <c r="B427" t="n">
         <v>1</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>7018</v>
+        <v>6845</v>
       </c>
       <c r="B428" t="n">
         <v>1</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>7019</v>
+        <v>6846</v>
       </c>
       <c r="B429" t="n">
         <v>1</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>7061</v>
+        <v>6859</v>
       </c>
       <c r="B430" t="n">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>7065</v>
+        <v>6860</v>
       </c>
       <c r="B431" t="n">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>7067</v>
+        <v>6869</v>
       </c>
       <c r="B432" t="n">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>7075</v>
+        <v>6872</v>
       </c>
       <c r="B433" t="n">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>7084</v>
+        <v>6878</v>
       </c>
       <c r="B434" t="n">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>7093</v>
+        <v>6880</v>
       </c>
       <c r="B435" t="n">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>7095</v>
+        <v>6885</v>
       </c>
       <c r="B436" t="n">
         <v>1</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>7107</v>
+        <v>6894</v>
       </c>
       <c r="B437" t="n">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>7114</v>
+        <v>6896</v>
       </c>
       <c r="B438" t="n">
         <v>1</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>7117</v>
+        <v>6902</v>
       </c>
       <c r="B439" t="n">
         <v>1</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>7119</v>
+        <v>6904</v>
       </c>
       <c r="B440" t="n">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>7126</v>
+        <v>6913</v>
       </c>
       <c r="B441" t="n">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>7127</v>
+        <v>6914</v>
       </c>
       <c r="B442" t="n">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>7129</v>
+        <v>6920</v>
       </c>
       <c r="B443" t="n">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>7135</v>
+        <v>6921</v>
       </c>
       <c r="B444" t="n">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>7138</v>
+        <v>6935</v>
       </c>
       <c r="B445" t="n">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>7143</v>
+        <v>6936</v>
       </c>
       <c r="B446" t="n">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>7144</v>
+        <v>6949</v>
       </c>
       <c r="B447" t="n">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>7162</v>
+        <v>6955</v>
       </c>
       <c r="B448" t="n">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>7182</v>
+        <v>6956</v>
       </c>
       <c r="B449" t="n">
         <v>1</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>7193</v>
+        <v>6961</v>
       </c>
       <c r="B450" t="n">
         <v>1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>7195</v>
+        <v>6962</v>
       </c>
       <c r="B451" t="n">
         <v>1</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>7200</v>
+        <v>6976</v>
       </c>
       <c r="B452" t="n">
         <v>1</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>7204</v>
+        <v>6977</v>
       </c>
       <c r="B453" t="n">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>7215</v>
+        <v>6988</v>
       </c>
       <c r="B454" t="n">
         <v>1</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>7217</v>
+        <v>6992</v>
       </c>
       <c r="B455" t="n">
         <v>1</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>7219</v>
+        <v>6998</v>
       </c>
       <c r="B456" t="n">
         <v>1</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>7220</v>
+        <v>7002</v>
       </c>
       <c r="B457" t="n">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>7225</v>
+        <v>2595</v>
       </c>
       <c r="B458" t="n">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>7229</v>
+        <v>7013</v>
       </c>
       <c r="B459" t="n">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>7233</v>
+        <v>7018</v>
       </c>
       <c r="B460" t="n">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>7264</v>
+        <v>7019</v>
       </c>
       <c r="B461" t="n">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>7270</v>
+        <v>2639</v>
       </c>
       <c r="B462" t="n">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>7275</v>
+        <v>7061</v>
       </c>
       <c r="B463" t="n">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>7285</v>
+        <v>7065</v>
       </c>
       <c r="B464" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>7297</v>
+        <v>7067</v>
       </c>
       <c r="B465" t="n">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>7298</v>
+        <v>7075</v>
       </c>
       <c r="B466" t="n">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>7303</v>
+        <v>2673</v>
       </c>
       <c r="B467" t="n">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>7307</v>
+        <v>7084</v>
       </c>
       <c r="B468" t="n">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>7309</v>
+        <v>7093</v>
       </c>
       <c r="B469" t="n">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>7310</v>
+        <v>7095</v>
       </c>
       <c r="B470" t="n">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>7322</v>
+        <v>7107</v>
       </c>
       <c r="B471" t="n">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>7327</v>
+        <v>7114</v>
       </c>
       <c r="B472" t="n">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>7329</v>
+        <v>7117</v>
       </c>
       <c r="B473" t="n">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>7332</v>
+        <v>7119</v>
       </c>
       <c r="B474" t="n">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>7343</v>
+        <v>7126</v>
       </c>
       <c r="B475" t="n">
         <v>1</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>7352</v>
+        <v>7127</v>
       </c>
       <c r="B476" t="n">
         <v>1</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>7357</v>
+        <v>2722</v>
       </c>
       <c r="B477" t="n">
         <v>1</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>7364</v>
+        <v>7135</v>
       </c>
       <c r="B478" t="n">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>7379</v>
+        <v>7138</v>
       </c>
       <c r="B479" t="n">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>7381</v>
+        <v>7143</v>
       </c>
       <c r="B480" t="n">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>7386</v>
+        <v>7144</v>
       </c>
       <c r="B481" t="n">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>7389</v>
+        <v>7162</v>
       </c>
       <c r="B482" t="n">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>7410</v>
+        <v>2755</v>
       </c>
       <c r="B483" t="n">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>7416</v>
+        <v>7182</v>
       </c>
       <c r="B484" t="n">
         <v>1</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>7420</v>
+        <v>7193</v>
       </c>
       <c r="B485" t="n">
         <v>1</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>7429</v>
+        <v>7195</v>
       </c>
       <c r="B486" t="n">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>7450</v>
+        <v>7200</v>
       </c>
       <c r="B487" t="n">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>7456</v>
+        <v>7204</v>
       </c>
       <c r="B488" t="n">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>7459</v>
+        <v>7215</v>
       </c>
       <c r="B489" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>7461</v>
+        <v>7217</v>
       </c>
       <c r="B490" t="n">
         <v>1</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>7463</v>
+        <v>7219</v>
       </c>
       <c r="B491" t="n">
         <v>1</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>7471</v>
+        <v>7220</v>
       </c>
       <c r="B492" t="n">
         <v>1</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>7475</v>
+        <v>7225</v>
       </c>
       <c r="B493" t="n">
         <v>1</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>7478</v>
+        <v>7229</v>
       </c>
       <c r="B494" t="n">
         <v>1</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>7498</v>
+        <v>7233</v>
       </c>
       <c r="B495" t="n">
         <v>1</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>7507</v>
+        <v>7264</v>
       </c>
       <c r="B496" t="n">
         <v>1</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>7508</v>
+        <v>7270</v>
       </c>
       <c r="B497" t="n">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>7514</v>
+        <v>7275</v>
       </c>
       <c r="B498" t="n">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>7515</v>
+        <v>2867</v>
       </c>
       <c r="B499" t="n">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>7528</v>
+        <v>7285</v>
       </c>
       <c r="B500" t="n">
         <v>1</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>7529</v>
+        <v>7297</v>
       </c>
       <c r="B501" t="n">
         <v>1</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>7532</v>
+        <v>7298</v>
       </c>
       <c r="B502" t="n">
         <v>1</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>7533</v>
+        <v>7303</v>
       </c>
       <c r="B503" t="n">
         <v>1</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>7536</v>
+        <v>7307</v>
       </c>
       <c r="B504" t="n">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>7546</v>
+        <v>7309</v>
       </c>
       <c r="B505" t="n">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>7550</v>
+        <v>7310</v>
       </c>
       <c r="B506" t="n">
         <v>1</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>7556</v>
+        <v>7322</v>
       </c>
       <c r="B507" t="n">
         <v>1</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>7562</v>
+        <v>7327</v>
       </c>
       <c r="B508" t="n">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>7572</v>
+        <v>7329</v>
       </c>
       <c r="B509" t="n">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>7573</v>
+        <v>7332</v>
       </c>
       <c r="B510" t="n">
         <v>1</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>7575</v>
+        <v>7343</v>
       </c>
       <c r="B511" t="n">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>7588</v>
+        <v>7352</v>
       </c>
       <c r="B512" t="n">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>7597</v>
+        <v>7357</v>
       </c>
       <c r="B513" t="n">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>7606</v>
+        <v>7364</v>
       </c>
       <c r="B514" t="n">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>7607</v>
+        <v>7379</v>
       </c>
       <c r="B515" t="n">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>7618</v>
+        <v>7381</v>
       </c>
       <c r="B516" t="n">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>7621</v>
+        <v>7386</v>
       </c>
       <c r="B517" t="n">
         <v>1</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>7633</v>
+        <v>7389</v>
       </c>
       <c r="B518" t="n">
         <v>1</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>7640</v>
+        <v>2985</v>
       </c>
       <c r="B519" t="n">
         <v>1</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>7655</v>
+        <v>7410</v>
       </c>
       <c r="B520" t="n">
         <v>1</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>7659</v>
+        <v>3001</v>
       </c>
       <c r="B521" t="n">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>7661</v>
+        <v>7416</v>
       </c>
       <c r="B522" t="n">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>7666</v>
+        <v>7420</v>
       </c>
       <c r="B523" t="n">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>7678</v>
+        <v>3015</v>
       </c>
       <c r="B524" t="n">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>7682</v>
+        <v>7429</v>
       </c>
       <c r="B525" t="n">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>7684</v>
+        <v>7450</v>
       </c>
       <c r="B526" t="n">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>7688</v>
+        <v>7456</v>
       </c>
       <c r="B527" t="n">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>7691</v>
+        <v>7459</v>
       </c>
       <c r="B528" t="n">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>7700</v>
+        <v>7461</v>
       </c>
       <c r="B529" t="n">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>7701</v>
+        <v>7463</v>
       </c>
       <c r="B530" t="n">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>7707</v>
+        <v>7471</v>
       </c>
       <c r="B531" t="n">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>7729</v>
+        <v>7475</v>
       </c>
       <c r="B532" t="n">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>7738</v>
+        <v>7478</v>
       </c>
       <c r="B533" t="n">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>7749</v>
+        <v>3082</v>
       </c>
       <c r="B534" t="n">
         <v>1</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>7753</v>
+        <v>7498</v>
       </c>
       <c r="B535" t="n">
         <v>1</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>7755</v>
+        <v>7507</v>
       </c>
       <c r="B536" t="n">
         <v>1</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>7756</v>
+        <v>7508</v>
       </c>
       <c r="B537" t="n">
         <v>1</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>7759</v>
+        <v>7514</v>
       </c>
       <c r="B538" t="n">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>7760</v>
+        <v>7515</v>
       </c>
       <c r="B539" t="n">
         <v>1</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>7762</v>
+        <v>7528</v>
       </c>
       <c r="B540" t="n">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>7776</v>
+        <v>7529</v>
       </c>
       <c r="B541" t="n">
         <v>1</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>7781</v>
+        <v>7532</v>
       </c>
       <c r="B542" t="n">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>7782</v>
+        <v>7533</v>
       </c>
       <c r="B543" t="n">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>7786</v>
+        <v>7536</v>
       </c>
       <c r="B544" t="n">
         <v>1</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>7788</v>
+        <v>7546</v>
       </c>
       <c r="B545" t="n">
         <v>1</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>7793</v>
+        <v>7550</v>
       </c>
       <c r="B546" t="n">
         <v>1</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>7799</v>
+        <v>7556</v>
       </c>
       <c r="B547" t="n">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>7802</v>
+        <v>7562</v>
       </c>
       <c r="B548" t="n">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>7804</v>
+        <v>7572</v>
       </c>
       <c r="B549" t="n">
         <v>1</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>7813</v>
+        <v>7573</v>
       </c>
       <c r="B550" t="n">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>7818</v>
+        <v>7575</v>
       </c>
       <c r="B551" t="n">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>7824</v>
+        <v>7588</v>
       </c>
       <c r="B552" t="n">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>7825</v>
+        <v>7597</v>
       </c>
       <c r="B553" t="n">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>7837</v>
+        <v>7606</v>
       </c>
       <c r="B554" t="n">
         <v>1</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>7841</v>
+        <v>7607</v>
       </c>
       <c r="B555" t="n">
         <v>1</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>7842</v>
+        <v>7618</v>
       </c>
       <c r="B556" t="n">
         <v>1</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>7845</v>
+        <v>7621</v>
       </c>
       <c r="B557" t="n">
         <v>1</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>7854</v>
+        <v>7633</v>
       </c>
       <c r="B558" t="n">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>7855</v>
+        <v>7640</v>
       </c>
       <c r="B559" t="n">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>7869</v>
+        <v>7655</v>
       </c>
       <c r="B560" t="n">
         <v>1</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>7870</v>
+        <v>7659</v>
       </c>
       <c r="B561" t="n">
         <v>1</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>7872</v>
+        <v>7661</v>
       </c>
       <c r="B562" t="n">
         <v>1</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>7873</v>
+        <v>7666</v>
       </c>
       <c r="B563" t="n">
         <v>1</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>7882</v>
+        <v>7678</v>
       </c>
       <c r="B564" t="n">
         <v>1</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>7884</v>
+        <v>7682</v>
       </c>
       <c r="B565" t="n">
         <v>1</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>7885</v>
+        <v>7684</v>
       </c>
       <c r="B566" t="n">
         <v>1</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>7889</v>
+        <v>7688</v>
       </c>
       <c r="B567" t="n">
         <v>1</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>7890</v>
+        <v>7691</v>
       </c>
       <c r="B568" t="n">
         <v>1</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>7891</v>
+        <v>7700</v>
       </c>
       <c r="B569" t="n">
         <v>1</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>7893</v>
+        <v>7701</v>
       </c>
       <c r="B570" t="n">
         <v>1</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>7894</v>
+        <v>7707</v>
       </c>
       <c r="B571" t="n">
         <v>1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>7906</v>
+        <v>3303</v>
       </c>
       <c r="B572" t="n">
         <v>1</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>7921</v>
+        <v>3306</v>
       </c>
       <c r="B573" t="n">
         <v>1</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>7922</v>
+        <v>7729</v>
       </c>
       <c r="B574" t="n">
         <v>1</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>7924</v>
+        <v>3322</v>
       </c>
       <c r="B575" t="n">
         <v>1</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>7929</v>
+        <v>7738</v>
       </c>
       <c r="B576" t="n">
         <v>1</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>7931</v>
+        <v>7749</v>
       </c>
       <c r="B577" t="n">
         <v>1</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>7935</v>
+        <v>7753</v>
       </c>
       <c r="B578" t="n">
         <v>1</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>7942</v>
+        <v>7755</v>
       </c>
       <c r="B579" t="n">
         <v>1</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>7950</v>
+        <v>7756</v>
       </c>
       <c r="B580" t="n">
         <v>1</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>7953</v>
+        <v>7759</v>
       </c>
       <c r="B581" t="n">
         <v>1</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>7957</v>
+        <v>7760</v>
       </c>
       <c r="B582" t="n">
         <v>1</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>7964</v>
+        <v>7762</v>
       </c>
       <c r="B583" t="n">
         <v>1</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>7985</v>
+        <v>7776</v>
       </c>
       <c r="B584" t="n">
         <v>1</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>8004</v>
+        <v>7781</v>
       </c>
       <c r="B585" t="n">
         <v>1</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>8006</v>
+        <v>7782</v>
       </c>
       <c r="B586" t="n">
         <v>1</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>8008</v>
+        <v>7786</v>
       </c>
       <c r="B587" t="n">
         <v>1</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>8021</v>
+        <v>7788</v>
       </c>
       <c r="B588" t="n">
         <v>1</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>8025</v>
+        <v>7793</v>
       </c>
       <c r="B589" t="n">
         <v>1</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>8032</v>
+        <v>7799</v>
       </c>
       <c r="B590" t="n">
         <v>1</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>8033</v>
+        <v>7802</v>
       </c>
       <c r="B591" t="n">
         <v>1</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>8039</v>
+        <v>7804</v>
       </c>
       <c r="B592" t="n">
         <v>1</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>8040</v>
+        <v>7813</v>
       </c>
       <c r="B593" t="n">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>8045</v>
+        <v>7818</v>
       </c>
       <c r="B594" t="n">
         <v>1</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>8046</v>
+        <v>7824</v>
       </c>
       <c r="B595" t="n">
         <v>1</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>8059</v>
+        <v>7825</v>
       </c>
       <c r="B596" t="n">
         <v>1</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>8068</v>
+        <v>7837</v>
       </c>
       <c r="B597" t="n">
         <v>1</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>8073</v>
+        <v>7841</v>
       </c>
       <c r="B598" t="n">
         <v>1</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>8074</v>
+        <v>7842</v>
       </c>
       <c r="B599" t="n">
         <v>1</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>8078</v>
+        <v>7845</v>
       </c>
       <c r="B600" t="n">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>8090</v>
+        <v>7854</v>
       </c>
       <c r="B601" t="n">
         <v>1</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>8099</v>
+        <v>7855</v>
       </c>
       <c r="B602" t="n">
         <v>1</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>8100</v>
+        <v>7869</v>
       </c>
       <c r="B603" t="n">
         <v>1</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>8105</v>
+        <v>7870</v>
       </c>
       <c r="B604" t="n">
         <v>1</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>8109</v>
+        <v>7872</v>
       </c>
       <c r="B605" t="n">
         <v>1</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>8114</v>
+        <v>7873</v>
       </c>
       <c r="B606" t="n">
         <v>1</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>8124</v>
+        <v>7882</v>
       </c>
       <c r="B607" t="n">
         <v>1</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>8125</v>
+        <v>7884</v>
       </c>
       <c r="B608" t="n">
         <v>1</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>8126</v>
+        <v>7885</v>
       </c>
       <c r="B609" t="n">
         <v>1</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>8129</v>
+        <v>7889</v>
       </c>
       <c r="B610" t="n">
         <v>1</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>8132</v>
+        <v>7890</v>
       </c>
       <c r="B611" t="n">
         <v>1</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>8149</v>
+        <v>7891</v>
       </c>
       <c r="B612" t="n">
         <v>1</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>8150</v>
+        <v>7893</v>
       </c>
       <c r="B613" t="n">
         <v>1</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>8151</v>
+        <v>7894</v>
       </c>
       <c r="B614" t="n">
         <v>1</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>8153</v>
+        <v>7906</v>
       </c>
       <c r="B615" t="n">
         <v>1</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>8161</v>
+        <v>7921</v>
       </c>
       <c r="B616" t="n">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>8170</v>
+        <v>7922</v>
       </c>
       <c r="B617" t="n">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>8176</v>
+        <v>7924</v>
       </c>
       <c r="B618" t="n">
         <v>1</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>8178</v>
+        <v>7929</v>
       </c>
       <c r="B619" t="n">
         <v>1</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>8199</v>
+        <v>7931</v>
       </c>
       <c r="B620" t="n">
         <v>1</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>8203</v>
+        <v>7935</v>
       </c>
       <c r="B621" t="n">
         <v>1</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>8204</v>
+        <v>7942</v>
       </c>
       <c r="B622" t="n">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>8205</v>
+        <v>7950</v>
       </c>
       <c r="B623" t="n">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>8229</v>
+        <v>7953</v>
       </c>
       <c r="B624" t="n">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>8246</v>
+        <v>7957</v>
       </c>
       <c r="B625" t="n">
         <v>1</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>8255</v>
+        <v>7964</v>
       </c>
       <c r="B626" t="n">
         <v>1</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>8260</v>
+        <v>7985</v>
       </c>
       <c r="B627" t="n">
         <v>1</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>8264</v>
+        <v>8004</v>
       </c>
       <c r="B628" t="n">
         <v>1</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>8279</v>
+        <v>8006</v>
       </c>
       <c r="B629" t="n">
         <v>1</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>8294</v>
+        <v>8008</v>
       </c>
       <c r="B630" t="n">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>8297</v>
+        <v>8021</v>
       </c>
       <c r="B631" t="n">
         <v>1</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>8298</v>
+        <v>8025</v>
       </c>
       <c r="B632" t="n">
         <v>1</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>8306</v>
+        <v>8032</v>
       </c>
       <c r="B633" t="n">
         <v>1</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>8315</v>
+        <v>8033</v>
       </c>
       <c r="B634" t="n">
         <v>1</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>8316</v>
+        <v>8039</v>
       </c>
       <c r="B635" t="n">
         <v>1</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>8329</v>
+        <v>8040</v>
       </c>
       <c r="B636" t="n">
         <v>1</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>8330</v>
+        <v>8046</v>
       </c>
       <c r="B637" t="n">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>8339</v>
+        <v>8059</v>
       </c>
       <c r="B638" t="n">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>8342</v>
+        <v>8068</v>
       </c>
       <c r="B639" t="n">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>8348</v>
+        <v>8073</v>
       </c>
       <c r="B640" t="n">
         <v>1</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>8350</v>
+        <v>8074</v>
       </c>
       <c r="B641" t="n">
         <v>1</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>8355</v>
+        <v>8078</v>
       </c>
       <c r="B642" t="n">
         <v>1</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>8364</v>
+        <v>3673</v>
       </c>
       <c r="B643" t="n">
         <v>1</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>8366</v>
+        <v>3674</v>
       </c>
       <c r="B644" t="n">
         <v>1</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>8372</v>
+        <v>8090</v>
       </c>
       <c r="B645" t="n">
         <v>1</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>8374</v>
+        <v>3687</v>
       </c>
       <c r="B646" t="n">
         <v>1</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>8383</v>
+        <v>8099</v>
       </c>
       <c r="B647" t="n">
         <v>1</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>8384</v>
+        <v>8100</v>
       </c>
       <c r="B648" t="n">
         <v>1</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>8390</v>
+        <v>8105</v>
       </c>
       <c r="B649" t="n">
         <v>1</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>8391</v>
+        <v>8109</v>
       </c>
       <c r="B650" t="n">
         <v>1</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>8405</v>
+        <v>8114</v>
       </c>
       <c r="B651" t="n">
         <v>1</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>8406</v>
+        <v>8124</v>
       </c>
       <c r="B652" t="n">
         <v>1</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>8419</v>
+        <v>8125</v>
       </c>
       <c r="B653" t="n">
         <v>1</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>8425</v>
+        <v>8126</v>
       </c>
       <c r="B654" t="n">
         <v>1</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>8426</v>
+        <v>8129</v>
       </c>
       <c r="B655" t="n">
         <v>1</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>8431</v>
+        <v>8132</v>
       </c>
       <c r="B656" t="n">
         <v>1</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>8432</v>
+        <v>8149</v>
       </c>
       <c r="B657" t="n">
         <v>1</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>8446</v>
+        <v>8150</v>
       </c>
       <c r="B658" t="n">
         <v>1</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>8447</v>
+        <v>8151</v>
       </c>
       <c r="B659" t="n">
         <v>1</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>8458</v>
+        <v>8153</v>
       </c>
       <c r="B660" t="n">
         <v>1</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>8462</v>
+        <v>3749</v>
       </c>
       <c r="B661" t="n">
         <v>1</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>8468</v>
+        <v>3750</v>
       </c>
       <c r="B662" t="n">
         <v>1</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>8472</v>
+        <v>8161</v>
       </c>
       <c r="B663" t="n">
         <v>1</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>8483</v>
+        <v>8170</v>
       </c>
       <c r="B664" t="n">
         <v>1</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>8488</v>
+        <v>8176</v>
       </c>
       <c r="B665" t="n">
         <v>1</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>8489</v>
+        <v>8178</v>
       </c>
       <c r="B666" t="n">
         <v>1</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>8531</v>
+        <v>8199</v>
       </c>
       <c r="B667" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>8535</v>
+        <v>8203</v>
       </c>
       <c r="B668" t="n">
         <v>1</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>8537</v>
+        <v>8204</v>
       </c>
       <c r="B669" t="n">
         <v>1</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>8545</v>
+        <v>8205</v>
       </c>
       <c r="B670" t="n">
         <v>1</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>8554</v>
+        <v>3815</v>
       </c>
       <c r="B671" t="n">
         <v>1</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>8563</v>
+        <v>8229</v>
       </c>
       <c r="B672" t="n">
         <v>1</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>8565</v>
+        <v>8246</v>
       </c>
       <c r="B673" t="n">
         <v>1</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>8577</v>
+        <v>8255</v>
       </c>
       <c r="B674" t="n">
         <v>1</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>8584</v>
+        <v>8260</v>
       </c>
       <c r="B675" t="n">
         <v>1</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>8587</v>
+        <v>8264</v>
       </c>
       <c r="B676" t="n">
         <v>1</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>8589</v>
+        <v>8279</v>
       </c>
       <c r="B677" t="n">
         <v>1</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>8596</v>
+        <v>3876</v>
       </c>
       <c r="B678" t="n">
         <v>1</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>8597</v>
+        <v>8294</v>
       </c>
       <c r="B679" t="n">
         <v>1</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>8599</v>
+        <v>8297</v>
       </c>
       <c r="B680" t="n">
         <v>1</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>8605</v>
+        <v>8298</v>
       </c>
       <c r="B681" t="n">
         <v>1</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>8608</v>
+        <v>8306</v>
       </c>
       <c r="B682" t="n">
         <v>1</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>8613</v>
+        <v>8315</v>
       </c>
       <c r="B683" t="n">
         <v>1</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>8614</v>
+        <v>8316</v>
       </c>
       <c r="B684" t="n">
         <v>1</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>8632</v>
+        <v>8329</v>
       </c>
       <c r="B685" t="n">
         <v>1</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>8652</v>
+        <v>8330</v>
       </c>
       <c r="B686" t="n">
         <v>1</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>8663</v>
+        <v>8339</v>
       </c>
       <c r="B687" t="n">
         <v>1</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>8665</v>
+        <v>8342</v>
       </c>
       <c r="B688" t="n">
         <v>1</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>8670</v>
+        <v>8348</v>
       </c>
       <c r="B689" t="n">
         <v>1</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>8674</v>
+        <v>8350</v>
       </c>
       <c r="B690" t="n">
         <v>1</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>8685</v>
+        <v>8355</v>
       </c>
       <c r="B691" t="n">
         <v>1</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>8687</v>
+        <v>8364</v>
       </c>
       <c r="B692" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>8689</v>
+        <v>8366</v>
       </c>
       <c r="B693" t="n">
         <v>1</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>8690</v>
+        <v>8372</v>
       </c>
       <c r="B694" t="n">
         <v>1</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>8695</v>
+        <v>8374</v>
       </c>
       <c r="B695" t="n">
         <v>1</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>8699</v>
+        <v>8383</v>
       </c>
       <c r="B696" t="n">
         <v>1</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>8703</v>
+        <v>8384</v>
       </c>
       <c r="B697" t="n">
         <v>1</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>8734</v>
+        <v>8390</v>
       </c>
       <c r="B698" t="n">
         <v>1</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>8740</v>
+        <v>8391</v>
       </c>
       <c r="B699" t="n">
         <v>1</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>8745</v>
+        <v>8405</v>
       </c>
       <c r="B700" t="n">
         <v>1</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>8755</v>
+        <v>8406</v>
       </c>
       <c r="B701" t="n">
         <v>1</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>8767</v>
+        <v>8419</v>
       </c>
       <c r="B702" t="n">
         <v>1</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>8768</v>
+        <v>8425</v>
       </c>
       <c r="B703" t="n">
         <v>1</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>8773</v>
+        <v>8426</v>
       </c>
       <c r="B704" t="n">
         <v>1</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>8777</v>
+        <v>8431</v>
       </c>
       <c r="B705" t="n">
         <v>1</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>8779</v>
+        <v>8432</v>
       </c>
       <c r="B706" t="n">
         <v>1</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>8780</v>
+        <v>8446</v>
       </c>
       <c r="B707" t="n">
         <v>1</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>8792</v>
+        <v>8447</v>
       </c>
       <c r="B708" t="n">
         <v>1</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>8797</v>
+        <v>8458</v>
       </c>
       <c r="B709" t="n">
         <v>1</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>8799</v>
+        <v>8462</v>
       </c>
       <c r="B710" t="n">
         <v>1</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>8802</v>
+        <v>8468</v>
       </c>
       <c r="B711" t="n">
         <v>1</v>
@@ -6127,9 +6127,449 @@
     </row>
     <row r="712">
       <c r="A712" t="n">
+        <v>8472</v>
+      </c>
+      <c r="B712" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>4065</v>
+      </c>
+      <c r="B713" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>8483</v>
+      </c>
+      <c r="B714" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>8488</v>
+      </c>
+      <c r="B715" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>8489</v>
+      </c>
+      <c r="B716" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>4109</v>
+      </c>
+      <c r="B717" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>8531</v>
+      </c>
+      <c r="B718" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>8535</v>
+      </c>
+      <c r="B719" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>8537</v>
+      </c>
+      <c r="B720" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>8545</v>
+      </c>
+      <c r="B721" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>4143</v>
+      </c>
+      <c r="B722" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>8554</v>
+      </c>
+      <c r="B723" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>8563</v>
+      </c>
+      <c r="B724" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>8565</v>
+      </c>
+      <c r="B725" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>8577</v>
+      </c>
+      <c r="B726" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>8584</v>
+      </c>
+      <c r="B727" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>8587</v>
+      </c>
+      <c r="B728" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>8589</v>
+      </c>
+      <c r="B729" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>8596</v>
+      </c>
+      <c r="B730" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>8597</v>
+      </c>
+      <c r="B731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>4192</v>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>8605</v>
+      </c>
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>8608</v>
+      </c>
+      <c r="B734" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>8613</v>
+      </c>
+      <c r="B735" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>8614</v>
+      </c>
+      <c r="B736" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>4220</v>
+      </c>
+      <c r="B737" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>8632</v>
+      </c>
+      <c r="B738" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>4225</v>
+      </c>
+      <c r="B739" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>8652</v>
+      </c>
+      <c r="B740" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>8663</v>
+      </c>
+      <c r="B741" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>8665</v>
+      </c>
+      <c r="B742" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>8670</v>
+      </c>
+      <c r="B743" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>8674</v>
+      </c>
+      <c r="B744" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>8685</v>
+      </c>
+      <c r="B745" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>8687</v>
+      </c>
+      <c r="B746" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>8689</v>
+      </c>
+      <c r="B747" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>8690</v>
+      </c>
+      <c r="B748" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>8695</v>
+      </c>
+      <c r="B749" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>8699</v>
+      </c>
+      <c r="B750" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>8703</v>
+      </c>
+      <c r="B751" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>8734</v>
+      </c>
+      <c r="B752" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>8740</v>
+      </c>
+      <c r="B753" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>8745</v>
+      </c>
+      <c r="B754" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>4337</v>
+      </c>
+      <c r="B755" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>8755</v>
+      </c>
+      <c r="B756" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>8767</v>
+      </c>
+      <c r="B757" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>8768</v>
+      </c>
+      <c r="B758" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>8773</v>
+      </c>
+      <c r="B759" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>8777</v>
+      </c>
+      <c r="B760" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>8779</v>
+      </c>
+      <c r="B761" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>8780</v>
+      </c>
+      <c r="B762" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>8792</v>
+      </c>
+      <c r="B763" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>8797</v>
+      </c>
+      <c r="B764" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>8799</v>
+      </c>
+      <c r="B765" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>8802</v>
+      </c>
+      <c r="B766" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
         <v>8813</v>
       </c>
-      <c r="B712" t="n">
+      <c r="B767" t="n">
         <v>1</v>
       </c>
     </row>

--- a/salidas/retiros.xlsx
+++ b/salidas/retiros.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4412</v>
+        <v>45</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4417</v>
+        <v>61</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4424</v>
+        <v>75</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4439</v>
+        <v>142</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4441</v>
+        <v>363</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4446</v>
+        <v>366</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4449</v>
+        <v>382</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>45</v>
+        <v>733</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4470</v>
+        <v>734</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61</v>
+        <v>747</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4476</v>
+        <v>809</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4480</v>
+        <v>810</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>75</v>
+        <v>875</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4489</v>
+        <v>936</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4510</v>
+        <v>1125</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4516</v>
+        <v>1169</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4519</v>
+        <v>1203</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4521</v>
+        <v>1252</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4523</v>
+        <v>1285</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4531</v>
+        <v>1397</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4535</v>
+        <v>1515</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4538</v>
+        <v>1531</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>142</v>
+        <v>1545</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4558</v>
+        <v>1612</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4567</v>
+        <v>1833</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4568</v>
+        <v>1836</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4574</v>
+        <v>1852</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4575</v>
+        <v>2203</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4588</v>
+        <v>2204</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4589</v>
+        <v>2217</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4592</v>
+        <v>2279</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4593</v>
+        <v>2280</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4596</v>
+        <v>2345</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4606</v>
+        <v>2406</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4610</v>
+        <v>2595</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4616</v>
+        <v>2639</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4622</v>
+        <v>2673</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4632</v>
+        <v>2722</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4633</v>
+        <v>2755</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4635</v>
+        <v>2867</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4648</v>
+        <v>2985</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4657</v>
+        <v>3001</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4666</v>
+        <v>3015</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4667</v>
+        <v>3082</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4678</v>
+        <v>3303</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4681</v>
+        <v>3306</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4693</v>
+        <v>3322</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4700</v>
+        <v>3673</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4715</v>
+        <v>3674</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4719</v>
+        <v>3687</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4721</v>
+        <v>3749</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4726</v>
+        <v>3750</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4738</v>
+        <v>3815</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4742</v>
+        <v>3876</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4744</v>
+        <v>4065</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4748</v>
+        <v>4109</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4751</v>
+        <v>4143</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4760</v>
+        <v>4192</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4761</v>
+        <v>4220</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4767</v>
+        <v>4225</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>363</v>
+        <v>4337</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>366</v>
+        <v>4412</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4789</v>
+        <v>4417</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>382</v>
+        <v>4424</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4798</v>
+        <v>4439</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4809</v>
+        <v>4441</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4813</v>
+        <v>4446</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4815</v>
+        <v>4449</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4816</v>
+        <v>4470</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4819</v>
+        <v>4476</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4820</v>
+        <v>4480</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4822</v>
+        <v>4489</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4836</v>
+        <v>4510</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4841</v>
+        <v>4516</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4842</v>
+        <v>4519</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4846</v>
+        <v>4521</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4848</v>
+        <v>4523</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4853</v>
+        <v>4531</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4859</v>
+        <v>4535</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4862</v>
+        <v>4538</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4864</v>
+        <v>4558</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4873</v>
+        <v>4567</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4878</v>
+        <v>4568</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4884</v>
+        <v>4574</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4885</v>
+        <v>4575</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4897</v>
+        <v>4588</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4901</v>
+        <v>4589</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4902</v>
+        <v>4592</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4905</v>
+        <v>4593</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4914</v>
+        <v>4596</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4915</v>
+        <v>4606</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4929</v>
+        <v>4610</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4930</v>
+        <v>4616</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4932</v>
+        <v>4622</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4933</v>
+        <v>4632</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4942</v>
+        <v>4633</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4944</v>
+        <v>4635</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4945</v>
+        <v>4648</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4949</v>
+        <v>4657</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4950</v>
+        <v>4666</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>4951</v>
+        <v>4667</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4953</v>
+        <v>4678</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4954</v>
+        <v>4681</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>4966</v>
+        <v>4693</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>4981</v>
+        <v>4700</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4982</v>
+        <v>4715</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>4984</v>
+        <v>4719</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>4989</v>
+        <v>4721</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4991</v>
+        <v>4726</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>4995</v>
+        <v>4738</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5002</v>
+        <v>4742</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5010</v>
+        <v>4744</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5013</v>
+        <v>4748</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5017</v>
+        <v>4751</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5024</v>
+        <v>4760</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5045</v>
+        <v>4761</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5064</v>
+        <v>4767</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5066</v>
+        <v>4789</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5068</v>
+        <v>4798</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>5081</v>
+        <v>4809</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5085</v>
+        <v>4813</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5092</v>
+        <v>4815</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5093</v>
+        <v>4816</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>5099</v>
+        <v>4819</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>5100</v>
+        <v>4820</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5106</v>
+        <v>4822</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>5119</v>
+        <v>4836</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>5128</v>
+        <v>4841</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5133</v>
+        <v>4842</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5134</v>
+        <v>4846</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5138</v>
+        <v>4848</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>733</v>
+        <v>4853</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>734</v>
+        <v>4859</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5150</v>
+        <v>4862</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>747</v>
+        <v>4864</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5159</v>
+        <v>4873</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>5160</v>
+        <v>4878</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5165</v>
+        <v>4884</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5169</v>
+        <v>4885</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5174</v>
+        <v>4897</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5184</v>
+        <v>4901</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5185</v>
+        <v>4902</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5186</v>
+        <v>4905</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>5189</v>
+        <v>4914</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5192</v>
+        <v>4915</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>5209</v>
+        <v>4929</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5210</v>
+        <v>4930</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5211</v>
+        <v>4932</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>5213</v>
+        <v>4933</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>809</v>
+        <v>4942</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>810</v>
+        <v>4944</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>5221</v>
+        <v>4945</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>5230</v>
+        <v>4949</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>5236</v>
+        <v>4950</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>5238</v>
+        <v>4951</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>5259</v>
+        <v>4953</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>5263</v>
+        <v>4954</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>5264</v>
+        <v>4966</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>5265</v>
+        <v>4981</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>875</v>
+        <v>4982</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>5289</v>
+        <v>4984</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>5306</v>
+        <v>4989</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>5315</v>
+        <v>4991</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>5320</v>
+        <v>4995</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>5324</v>
+        <v>5002</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>5339</v>
+        <v>5010</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>936</v>
+        <v>5013</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>5354</v>
+        <v>5017</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>5357</v>
+        <v>5024</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>5358</v>
+        <v>5045</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>5366</v>
+        <v>5064</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>5375</v>
+        <v>5066</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>5376</v>
+        <v>5068</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>5389</v>
+        <v>5081</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>5390</v>
+        <v>5085</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>5399</v>
+        <v>5092</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>5402</v>
+        <v>5093</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>5408</v>
+        <v>5099</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>5410</v>
+        <v>5100</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>5415</v>
+        <v>5106</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>5424</v>
+        <v>5119</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>5426</v>
+        <v>5128</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>5432</v>
+        <v>5133</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>5434</v>
+        <v>5134</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>5443</v>
+        <v>5138</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>5444</v>
+        <v>5150</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>5450</v>
+        <v>5159</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>5451</v>
+        <v>5160</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>5465</v>
+        <v>5165</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>5466</v>
+        <v>5169</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5479</v>
+        <v>5174</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>5485</v>
+        <v>5184</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>5486</v>
+        <v>5185</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>5491</v>
+        <v>5186</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>5492</v>
+        <v>5189</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>5506</v>
+        <v>5192</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>5507</v>
+        <v>5209</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>5518</v>
+        <v>5210</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>5522</v>
+        <v>5211</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>5528</v>
+        <v>5213</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>5532</v>
+        <v>5221</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1125</v>
+        <v>5230</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>5543</v>
+        <v>5236</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>5548</v>
+        <v>5238</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>5549</v>
+        <v>5259</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1169</v>
+        <v>5263</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>5591</v>
+        <v>5264</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>5595</v>
+        <v>5265</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>5597</v>
+        <v>5289</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>5605</v>
+        <v>5306</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1203</v>
+        <v>5315</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>5614</v>
+        <v>5320</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>5623</v>
+        <v>5324</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>5625</v>
+        <v>5339</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>5637</v>
+        <v>5354</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>5644</v>
+        <v>5357</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>5647</v>
+        <v>5358</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>5649</v>
+        <v>5366</v>
       </c>
       <c r="B219" t="n">
         <v>1</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>5656</v>
+        <v>5375</v>
       </c>
       <c r="B220" t="n">
         <v>1</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>5657</v>
+        <v>5376</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1252</v>
+        <v>5389</v>
       </c>
       <c r="B222" t="n">
         <v>1</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>5665</v>
+        <v>5390</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>5668</v>
+        <v>5399</v>
       </c>
       <c r="B224" t="n">
         <v>1</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>5673</v>
+        <v>5402</v>
       </c>
       <c r="B225" t="n">
         <v>1</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>5674</v>
+        <v>5408</v>
       </c>
       <c r="B226" t="n">
         <v>1</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>5692</v>
+        <v>5410</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1285</v>
+        <v>5415</v>
       </c>
       <c r="B228" t="n">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>5712</v>
+        <v>5424</v>
       </c>
       <c r="B229" t="n">
         <v>1</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>5723</v>
+        <v>5426</v>
       </c>
       <c r="B230" t="n">
         <v>1</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>5725</v>
+        <v>5432</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>5730</v>
+        <v>5434</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>5734</v>
+        <v>5443</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>5745</v>
+        <v>5444</v>
       </c>
       <c r="B234" t="n">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>5747</v>
+        <v>5450</v>
       </c>
       <c r="B235" t="n">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>5749</v>
+        <v>5451</v>
       </c>
       <c r="B236" t="n">
         <v>1</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>5750</v>
+        <v>5465</v>
       </c>
       <c r="B237" t="n">
         <v>1</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>5755</v>
+        <v>5466</v>
       </c>
       <c r="B238" t="n">
         <v>1</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>5759</v>
+        <v>5479</v>
       </c>
       <c r="B239" t="n">
         <v>1</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>5763</v>
+        <v>5485</v>
       </c>
       <c r="B240" t="n">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>5794</v>
+        <v>5486</v>
       </c>
       <c r="B241" t="n">
         <v>1</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>5800</v>
+        <v>5491</v>
       </c>
       <c r="B242" t="n">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>5805</v>
+        <v>5492</v>
       </c>
       <c r="B243" t="n">
         <v>1</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1397</v>
+        <v>5506</v>
       </c>
       <c r="B244" t="n">
         <v>1</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>5815</v>
+        <v>5507</v>
       </c>
       <c r="B245" t="n">
         <v>1</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>5827</v>
+        <v>5518</v>
       </c>
       <c r="B246" t="n">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>5828</v>
+        <v>5522</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>5833</v>
+        <v>5528</v>
       </c>
       <c r="B248" t="n">
         <v>1</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>5837</v>
+        <v>5532</v>
       </c>
       <c r="B249" t="n">
         <v>1</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>5839</v>
+        <v>5543</v>
       </c>
       <c r="B250" t="n">
         <v>1</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>5840</v>
+        <v>5548</v>
       </c>
       <c r="B251" t="n">
         <v>1</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>5852</v>
+        <v>5549</v>
       </c>
       <c r="B252" t="n">
         <v>1</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>5857</v>
+        <v>5591</v>
       </c>
       <c r="B253" t="n">
         <v>1</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>5859</v>
+        <v>5595</v>
       </c>
       <c r="B254" t="n">
         <v>1</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>5862</v>
+        <v>5597</v>
       </c>
       <c r="B255" t="n">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>5873</v>
+        <v>5605</v>
       </c>
       <c r="B256" t="n">
         <v>1</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>5882</v>
+        <v>5614</v>
       </c>
       <c r="B257" t="n">
         <v>1</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>5887</v>
+        <v>5623</v>
       </c>
       <c r="B258" t="n">
         <v>1</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>5894</v>
+        <v>5625</v>
       </c>
       <c r="B259" t="n">
         <v>1</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>5909</v>
+        <v>5637</v>
       </c>
       <c r="B260" t="n">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>5911</v>
+        <v>5644</v>
       </c>
       <c r="B261" t="n">
         <v>1</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>5916</v>
+        <v>5647</v>
       </c>
       <c r="B262" t="n">
         <v>1</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>5919</v>
+        <v>5649</v>
       </c>
       <c r="B263" t="n">
         <v>1</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1515</v>
+        <v>5656</v>
       </c>
       <c r="B264" t="n">
         <v>1</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>5940</v>
+        <v>5657</v>
       </c>
       <c r="B265" t="n">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1531</v>
+        <v>5665</v>
       </c>
       <c r="B266" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>5946</v>
+        <v>5668</v>
       </c>
       <c r="B267" t="n">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>5950</v>
+        <v>5673</v>
       </c>
       <c r="B268" t="n">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1545</v>
+        <v>5674</v>
       </c>
       <c r="B269" t="n">
         <v>1</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>5959</v>
+        <v>5692</v>
       </c>
       <c r="B270" t="n">
         <v>1</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>5980</v>
+        <v>5712</v>
       </c>
       <c r="B271" t="n">
         <v>1</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>5986</v>
+        <v>5723</v>
       </c>
       <c r="B272" t="n">
         <v>1</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>5989</v>
+        <v>5725</v>
       </c>
       <c r="B273" t="n">
         <v>1</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>5991</v>
+        <v>5730</v>
       </c>
       <c r="B274" t="n">
         <v>1</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>5993</v>
+        <v>5734</v>
       </c>
       <c r="B275" t="n">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>6001</v>
+        <v>5745</v>
       </c>
       <c r="B276" t="n">
         <v>1</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>6005</v>
+        <v>5747</v>
       </c>
       <c r="B277" t="n">
         <v>1</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>6008</v>
+        <v>5749</v>
       </c>
       <c r="B278" t="n">
         <v>1</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1612</v>
+        <v>5750</v>
       </c>
       <c r="B279" t="n">
         <v>1</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>6028</v>
+        <v>5755</v>
       </c>
       <c r="B280" t="n">
         <v>1</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>6037</v>
+        <v>5759</v>
       </c>
       <c r="B281" t="n">
         <v>1</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>6038</v>
+        <v>5763</v>
       </c>
       <c r="B282" t="n">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>6044</v>
+        <v>5794</v>
       </c>
       <c r="B283" t="n">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>6045</v>
+        <v>5800</v>
       </c>
       <c r="B284" t="n">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>6058</v>
+        <v>5805</v>
       </c>
       <c r="B285" t="n">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>6059</v>
+        <v>5815</v>
       </c>
       <c r="B286" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>6062</v>
+        <v>5827</v>
       </c>
       <c r="B287" t="n">
         <v>1</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>6063</v>
+        <v>5828</v>
       </c>
       <c r="B288" t="n">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>6066</v>
+        <v>5833</v>
       </c>
       <c r="B289" t="n">
         <v>1</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>6076</v>
+        <v>5837</v>
       </c>
       <c r="B290" t="n">
         <v>1</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>6080</v>
+        <v>5839</v>
       </c>
       <c r="B291" t="n">
         <v>1</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>6086</v>
+        <v>5840</v>
       </c>
       <c r="B292" t="n">
         <v>1</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>6092</v>
+        <v>5852</v>
       </c>
       <c r="B293" t="n">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>6102</v>
+        <v>5857</v>
       </c>
       <c r="B294" t="n">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>6103</v>
+        <v>5859</v>
       </c>
       <c r="B295" t="n">
         <v>1</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>6105</v>
+        <v>5862</v>
       </c>
       <c r="B296" t="n">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>6118</v>
+        <v>5873</v>
       </c>
       <c r="B297" t="n">
         <v>1</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>6127</v>
+        <v>5882</v>
       </c>
       <c r="B298" t="n">
         <v>1</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>6136</v>
+        <v>5887</v>
       </c>
       <c r="B299" t="n">
         <v>1</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>6137</v>
+        <v>5894</v>
       </c>
       <c r="B300" t="n">
         <v>1</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>6148</v>
+        <v>5909</v>
       </c>
       <c r="B301" t="n">
         <v>1</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>6151</v>
+        <v>5911</v>
       </c>
       <c r="B302" t="n">
         <v>1</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>6163</v>
+        <v>5916</v>
       </c>
       <c r="B303" t="n">
         <v>1</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>6170</v>
+        <v>5919</v>
       </c>
       <c r="B304" t="n">
         <v>1</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>6185</v>
+        <v>5940</v>
       </c>
       <c r="B305" t="n">
         <v>1</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>6189</v>
+        <v>5946</v>
       </c>
       <c r="B306" t="n">
         <v>1</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>6191</v>
+        <v>5950</v>
       </c>
       <c r="B307" t="n">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>6196</v>
+        <v>5959</v>
       </c>
       <c r="B308" t="n">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>6208</v>
+        <v>5980</v>
       </c>
       <c r="B309" t="n">
         <v>1</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>6212</v>
+        <v>5986</v>
       </c>
       <c r="B310" t="n">
         <v>1</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>6214</v>
+        <v>5989</v>
       </c>
       <c r="B311" t="n">
         <v>1</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>6218</v>
+        <v>5991</v>
       </c>
       <c r="B312" t="n">
         <v>1</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>6221</v>
+        <v>5993</v>
       </c>
       <c r="B313" t="n">
         <v>1</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>6230</v>
+        <v>6001</v>
       </c>
       <c r="B314" t="n">
         <v>1</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>6231</v>
+        <v>6005</v>
       </c>
       <c r="B315" t="n">
         <v>1</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>6237</v>
+        <v>6008</v>
       </c>
       <c r="B316" t="n">
         <v>1</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>1833</v>
+        <v>6028</v>
       </c>
       <c r="B317" t="n">
         <v>1</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>1836</v>
+        <v>6037</v>
       </c>
       <c r="B318" t="n">
         <v>1</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>6259</v>
+        <v>6038</v>
       </c>
       <c r="B319" t="n">
         <v>1</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>1852</v>
+        <v>6044</v>
       </c>
       <c r="B320" t="n">
         <v>1</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>6268</v>
+        <v>6045</v>
       </c>
       <c r="B321" t="n">
         <v>1</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>6279</v>
+        <v>6058</v>
       </c>
       <c r="B322" t="n">
         <v>1</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>6283</v>
+        <v>6059</v>
       </c>
       <c r="B323" t="n">
         <v>1</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>6285</v>
+        <v>6062</v>
       </c>
       <c r="B324" t="n">
         <v>1</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>6286</v>
+        <v>6063</v>
       </c>
       <c r="B325" t="n">
         <v>1</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>6289</v>
+        <v>6066</v>
       </c>
       <c r="B326" t="n">
         <v>1</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>6290</v>
+        <v>6076</v>
       </c>
       <c r="B327" t="n">
         <v>1</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>6292</v>
+        <v>6080</v>
       </c>
       <c r="B328" t="n">
         <v>1</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>6306</v>
+        <v>6086</v>
       </c>
       <c r="B329" t="n">
         <v>1</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>6311</v>
+        <v>6092</v>
       </c>
       <c r="B330" t="n">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>6312</v>
+        <v>6102</v>
       </c>
       <c r="B331" t="n">
         <v>1</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>6316</v>
+        <v>6103</v>
       </c>
       <c r="B332" t="n">
         <v>1</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>6318</v>
+        <v>6105</v>
       </c>
       <c r="B333" t="n">
         <v>1</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>6323</v>
+        <v>6118</v>
       </c>
       <c r="B334" t="n">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>6329</v>
+        <v>6127</v>
       </c>
       <c r="B335" t="n">
         <v>1</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>6332</v>
+        <v>6136</v>
       </c>
       <c r="B336" t="n">
         <v>1</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>6334</v>
+        <v>6137</v>
       </c>
       <c r="B337" t="n">
         <v>1</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>6343</v>
+        <v>6148</v>
       </c>
       <c r="B338" t="n">
         <v>1</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>6348</v>
+        <v>6151</v>
       </c>
       <c r="B339" t="n">
         <v>1</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>6354</v>
+        <v>6163</v>
       </c>
       <c r="B340" t="n">
         <v>1</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>6355</v>
+        <v>6170</v>
       </c>
       <c r="B341" t="n">
         <v>1</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>6367</v>
+        <v>6185</v>
       </c>
       <c r="B342" t="n">
         <v>1</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>6371</v>
+        <v>6189</v>
       </c>
       <c r="B343" t="n">
         <v>1</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>6372</v>
+        <v>6191</v>
       </c>
       <c r="B344" t="n">
         <v>1</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>6375</v>
+        <v>6196</v>
       </c>
       <c r="B345" t="n">
         <v>1</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>6384</v>
+        <v>6208</v>
       </c>
       <c r="B346" t="n">
         <v>1</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>6385</v>
+        <v>6212</v>
       </c>
       <c r="B347" t="n">
         <v>1</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>6399</v>
+        <v>6214</v>
       </c>
       <c r="B348" t="n">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>6400</v>
+        <v>6218</v>
       </c>
       <c r="B349" t="n">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>6402</v>
+        <v>6221</v>
       </c>
       <c r="B350" t="n">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>6403</v>
+        <v>6230</v>
       </c>
       <c r="B351" t="n">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>6412</v>
+        <v>6231</v>
       </c>
       <c r="B352" t="n">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>6414</v>
+        <v>6237</v>
       </c>
       <c r="B353" t="n">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>6415</v>
+        <v>6259</v>
       </c>
       <c r="B354" t="n">
         <v>1</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>6419</v>
+        <v>6268</v>
       </c>
       <c r="B355" t="n">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>6420</v>
+        <v>6279</v>
       </c>
       <c r="B356" t="n">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>6421</v>
+        <v>6283</v>
       </c>
       <c r="B357" t="n">
         <v>1</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>6423</v>
+        <v>6285</v>
       </c>
       <c r="B358" t="n">
         <v>1</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>6424</v>
+        <v>6286</v>
       </c>
       <c r="B359" t="n">
         <v>1</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>6436</v>
+        <v>6289</v>
       </c>
       <c r="B360" t="n">
         <v>1</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>6451</v>
+        <v>6290</v>
       </c>
       <c r="B361" t="n">
         <v>1</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>6452</v>
+        <v>6292</v>
       </c>
       <c r="B362" t="n">
         <v>1</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>6454</v>
+        <v>6306</v>
       </c>
       <c r="B363" t="n">
         <v>1</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>6459</v>
+        <v>6311</v>
       </c>
       <c r="B364" t="n">
         <v>1</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>6461</v>
+        <v>6312</v>
       </c>
       <c r="B365" t="n">
         <v>1</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>6465</v>
+        <v>6316</v>
       </c>
       <c r="B366" t="n">
         <v>1</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>6472</v>
+        <v>6318</v>
       </c>
       <c r="B367" t="n">
         <v>1</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>6480</v>
+        <v>6323</v>
       </c>
       <c r="B368" t="n">
         <v>1</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>6483</v>
+        <v>6329</v>
       </c>
       <c r="B369" t="n">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>6487</v>
+        <v>6332</v>
       </c>
       <c r="B370" t="n">
         <v>1</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>6494</v>
+        <v>6334</v>
       </c>
       <c r="B371" t="n">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>6515</v>
+        <v>6343</v>
       </c>
       <c r="B372" t="n">
         <v>1</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>6534</v>
+        <v>6348</v>
       </c>
       <c r="B373" t="n">
         <v>1</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>6536</v>
+        <v>6354</v>
       </c>
       <c r="B374" t="n">
         <v>1</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>6538</v>
+        <v>6355</v>
       </c>
       <c r="B375" t="n">
         <v>1</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>6551</v>
+        <v>6367</v>
       </c>
       <c r="B376" t="n">
         <v>1</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>6555</v>
+        <v>6371</v>
       </c>
       <c r="B377" t="n">
         <v>1</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>6562</v>
+        <v>6372</v>
       </c>
       <c r="B378" t="n">
         <v>1</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>6563</v>
+        <v>6375</v>
       </c>
       <c r="B379" t="n">
         <v>1</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>6569</v>
+        <v>6384</v>
       </c>
       <c r="B380" t="n">
         <v>1</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>6570</v>
+        <v>6385</v>
       </c>
       <c r="B381" t="n">
         <v>1</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>6576</v>
+        <v>6399</v>
       </c>
       <c r="B382" t="n">
         <v>1</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>6589</v>
+        <v>6400</v>
       </c>
       <c r="B383" t="n">
         <v>1</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>6598</v>
+        <v>6402</v>
       </c>
       <c r="B384" t="n">
         <v>1</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>6603</v>
+        <v>6403</v>
       </c>
       <c r="B385" t="n">
         <v>1</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>6604</v>
+        <v>6412</v>
       </c>
       <c r="B386" t="n">
         <v>1</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>6608</v>
+        <v>6414</v>
       </c>
       <c r="B387" t="n">
         <v>1</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>2203</v>
+        <v>6415</v>
       </c>
       <c r="B388" t="n">
         <v>1</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>2204</v>
+        <v>6419</v>
       </c>
       <c r="B389" t="n">
         <v>1</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>6620</v>
+        <v>6420</v>
       </c>
       <c r="B390" t="n">
         <v>1</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>2217</v>
+        <v>6421</v>
       </c>
       <c r="B391" t="n">
         <v>1</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>6629</v>
+        <v>6423</v>
       </c>
       <c r="B392" t="n">
         <v>1</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>6630</v>
+        <v>6424</v>
       </c>
       <c r="B393" t="n">
         <v>1</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>6635</v>
+        <v>6436</v>
       </c>
       <c r="B394" t="n">
         <v>1</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>6639</v>
+        <v>6451</v>
       </c>
       <c r="B395" t="n">
         <v>1</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>6644</v>
+        <v>6452</v>
       </c>
       <c r="B396" t="n">
         <v>1</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>6654</v>
+        <v>6454</v>
       </c>
       <c r="B397" t="n">
         <v>1</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>6655</v>
+        <v>6459</v>
       </c>
       <c r="B398" t="n">
         <v>1</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>6656</v>
+        <v>6461</v>
       </c>
       <c r="B399" t="n">
         <v>1</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>6659</v>
+        <v>6465</v>
       </c>
       <c r="B400" t="n">
         <v>1</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>6662</v>
+        <v>6472</v>
       </c>
       <c r="B401" t="n">
         <v>1</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>6679</v>
+        <v>6480</v>
       </c>
       <c r="B402" t="n">
         <v>1</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>6680</v>
+        <v>6483</v>
       </c>
       <c r="B403" t="n">
         <v>1</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>6681</v>
+        <v>6487</v>
       </c>
       <c r="B404" t="n">
         <v>1</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>6683</v>
+        <v>6494</v>
       </c>
       <c r="B405" t="n">
         <v>1</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>2279</v>
+        <v>6515</v>
       </c>
       <c r="B406" t="n">
         <v>1</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>2280</v>
+        <v>6534</v>
       </c>
       <c r="B407" t="n">
         <v>1</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>6691</v>
+        <v>6536</v>
       </c>
       <c r="B408" t="n">
         <v>1</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>6700</v>
+        <v>6538</v>
       </c>
       <c r="B409" t="n">
         <v>1</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>6706</v>
+        <v>6551</v>
       </c>
       <c r="B410" t="n">
         <v>1</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>6708</v>
+        <v>6555</v>
       </c>
       <c r="B411" t="n">
         <v>1</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>6729</v>
+        <v>6562</v>
       </c>
       <c r="B412" t="n">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>6733</v>
+        <v>6563</v>
       </c>
       <c r="B413" t="n">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>6734</v>
+        <v>6569</v>
       </c>
       <c r="B414" t="n">
         <v>1</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>6735</v>
+        <v>6570</v>
       </c>
       <c r="B415" t="n">
         <v>1</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>2345</v>
+        <v>6576</v>
       </c>
       <c r="B416" t="n">
         <v>1</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>6759</v>
+        <v>6589</v>
       </c>
       <c r="B417" t="n">
         <v>1</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>6776</v>
+        <v>6598</v>
       </c>
       <c r="B418" t="n">
         <v>1</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>6785</v>
+        <v>6603</v>
       </c>
       <c r="B419" t="n">
         <v>1</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>6790</v>
+        <v>6604</v>
       </c>
       <c r="B420" t="n">
         <v>1</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>6794</v>
+        <v>6608</v>
       </c>
       <c r="B421" t="n">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>6809</v>
+        <v>6620</v>
       </c>
       <c r="B422" t="n">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2406</v>
+        <v>6629</v>
       </c>
       <c r="B423" t="n">
         <v>1</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>6824</v>
+        <v>6630</v>
       </c>
       <c r="B424" t="n">
         <v>1</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>6827</v>
+        <v>6635</v>
       </c>
       <c r="B425" t="n">
         <v>1</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>6828</v>
+        <v>6639</v>
       </c>
       <c r="B426" t="n">
         <v>1</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>6836</v>
+        <v>6644</v>
       </c>
       <c r="B427" t="n">
         <v>1</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>6845</v>
+        <v>6654</v>
       </c>
       <c r="B428" t="n">
         <v>1</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>6846</v>
+        <v>6655</v>
       </c>
       <c r="B429" t="n">
         <v>1</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>6859</v>
+        <v>6656</v>
       </c>
       <c r="B430" t="n">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>6860</v>
+        <v>6659</v>
       </c>
       <c r="B431" t="n">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>6869</v>
+        <v>6662</v>
       </c>
       <c r="B432" t="n">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>6872</v>
+        <v>6679</v>
       </c>
       <c r="B433" t="n">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>6878</v>
+        <v>6680</v>
       </c>
       <c r="B434" t="n">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>6880</v>
+        <v>6681</v>
       </c>
       <c r="B435" t="n">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>6885</v>
+        <v>6683</v>
       </c>
       <c r="B436" t="n">
         <v>1</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>6894</v>
+        <v>6691</v>
       </c>
       <c r="B437" t="n">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>6896</v>
+        <v>6700</v>
       </c>
       <c r="B438" t="n">
         <v>1</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>6902</v>
+        <v>6706</v>
       </c>
       <c r="B439" t="n">
         <v>1</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>6904</v>
+        <v>6708</v>
       </c>
       <c r="B440" t="n">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>6913</v>
+        <v>6729</v>
       </c>
       <c r="B441" t="n">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>6914</v>
+        <v>6733</v>
       </c>
       <c r="B442" t="n">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>6920</v>
+        <v>6734</v>
       </c>
       <c r="B443" t="n">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>6921</v>
+        <v>6735</v>
       </c>
       <c r="B444" t="n">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>6935</v>
+        <v>6759</v>
       </c>
       <c r="B445" t="n">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>6936</v>
+        <v>6776</v>
       </c>
       <c r="B446" t="n">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>6949</v>
+        <v>6785</v>
       </c>
       <c r="B447" t="n">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>6955</v>
+        <v>6790</v>
       </c>
       <c r="B448" t="n">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>6956</v>
+        <v>6794</v>
       </c>
       <c r="B449" t="n">
         <v>1</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>6961</v>
+        <v>6809</v>
       </c>
       <c r="B450" t="n">
         <v>1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>6962</v>
+        <v>6824</v>
       </c>
       <c r="B451" t="n">
         <v>1</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>6976</v>
+        <v>6827</v>
       </c>
       <c r="B452" t="n">
         <v>1</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>6977</v>
+        <v>6828</v>
       </c>
       <c r="B453" t="n">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>6988</v>
+        <v>6836</v>
       </c>
       <c r="B454" t="n">
         <v>1</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>6992</v>
+        <v>6845</v>
       </c>
       <c r="B455" t="n">
         <v>1</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>6998</v>
+        <v>6846</v>
       </c>
       <c r="B456" t="n">
         <v>1</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>7002</v>
+        <v>6859</v>
       </c>
       <c r="B457" t="n">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>2595</v>
+        <v>6860</v>
       </c>
       <c r="B458" t="n">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>7013</v>
+        <v>6869</v>
       </c>
       <c r="B459" t="n">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>7018</v>
+        <v>6872</v>
       </c>
       <c r="B460" t="n">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>7019</v>
+        <v>6878</v>
       </c>
       <c r="B461" t="n">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>2639</v>
+        <v>6880</v>
       </c>
       <c r="B462" t="n">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>7061</v>
+        <v>6885</v>
       </c>
       <c r="B463" t="n">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>7065</v>
+        <v>6894</v>
       </c>
       <c r="B464" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>7067</v>
+        <v>6896</v>
       </c>
       <c r="B465" t="n">
         <v>1</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>7075</v>
+        <v>6902</v>
       </c>
       <c r="B466" t="n">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>2673</v>
+        <v>6904</v>
       </c>
       <c r="B467" t="n">
         <v>1</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>7084</v>
+        <v>6913</v>
       </c>
       <c r="B468" t="n">
         <v>1</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>7093</v>
+        <v>6914</v>
       </c>
       <c r="B469" t="n">
         <v>1</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>7095</v>
+        <v>6920</v>
       </c>
       <c r="B470" t="n">
         <v>1</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>7107</v>
+        <v>6921</v>
       </c>
       <c r="B471" t="n">
         <v>1</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>7114</v>
+        <v>6935</v>
       </c>
       <c r="B472" t="n">
         <v>1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>7117</v>
+        <v>6936</v>
       </c>
       <c r="B473" t="n">
         <v>1</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>7119</v>
+        <v>6949</v>
       </c>
       <c r="B474" t="n">
         <v>1</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>7126</v>
+        <v>6955</v>
       </c>
       <c r="B475" t="n">
         <v>1</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>7127</v>
+        <v>6956</v>
       </c>
       <c r="B476" t="n">
         <v>1</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>2722</v>
+        <v>6961</v>
       </c>
       <c r="B477" t="n">
         <v>1</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>7135</v>
+        <v>6962</v>
       </c>
       <c r="B478" t="n">
         <v>1</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>7138</v>
+        <v>6976</v>
       </c>
       <c r="B479" t="n">
         <v>1</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>7143</v>
+        <v>6977</v>
       </c>
       <c r="B480" t="n">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>7144</v>
+        <v>6988</v>
       </c>
       <c r="B481" t="n">
         <v>1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>7162</v>
+        <v>6992</v>
       </c>
       <c r="B482" t="n">
         <v>1</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>2755</v>
+        <v>6998</v>
       </c>
       <c r="B483" t="n">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>7182</v>
+        <v>7002</v>
       </c>
       <c r="B484" t="n">
         <v>1</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>7193</v>
+        <v>7013</v>
       </c>
       <c r="B485" t="n">
         <v>1</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>7195</v>
+        <v>7018</v>
       </c>
       <c r="B486" t="n">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>7200</v>
+        <v>7019</v>
       </c>
       <c r="B487" t="n">
         <v>1</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>7204</v>
+        <v>7061</v>
       </c>
       <c r="B488" t="n">
         <v>1</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>7215</v>
+        <v>7065</v>
       </c>
       <c r="B489" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>7217</v>
+        <v>7067</v>
       </c>
       <c r="B490" t="n">
         <v>1</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>7219</v>
+        <v>7075</v>
       </c>
       <c r="B491" t="n">
         <v>1</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>7220</v>
+        <v>7084</v>
       </c>
       <c r="B492" t="n">
         <v>1</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>7225</v>
+        <v>7093</v>
       </c>
       <c r="B493" t="n">
         <v>1</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>7229</v>
+        <v>7095</v>
       </c>
       <c r="B494" t="n">
         <v>1</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>7233</v>
+        <v>7107</v>
       </c>
       <c r="B495" t="n">
         <v>1</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>7264</v>
+        <v>7114</v>
       </c>
       <c r="B496" t="n">
         <v>1</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>7270</v>
+        <v>7117</v>
       </c>
       <c r="B497" t="n">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>7275</v>
+        <v>7119</v>
       </c>
       <c r="B498" t="n">
         <v>1</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>2867</v>
+        <v>7126</v>
       </c>
       <c r="B499" t="n">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>7285</v>
+        <v>7127</v>
       </c>
       <c r="B500" t="n">
         <v>1</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>7297</v>
+        <v>7135</v>
       </c>
       <c r="B501" t="n">
         <v>1</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>7298</v>
+        <v>7138</v>
       </c>
       <c r="B502" t="n">
         <v>1</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>7303</v>
+        <v>7143</v>
       </c>
       <c r="B503" t="n">
         <v>1</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>7307</v>
+        <v>7144</v>
       </c>
       <c r="B504" t="n">
         <v>1</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>7309</v>
+        <v>7162</v>
       </c>
       <c r="B505" t="n">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>7310</v>
+        <v>7182</v>
       </c>
       <c r="B506" t="n">
         <v>1</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>7322</v>
+        <v>7193</v>
       </c>
       <c r="B507" t="n">
         <v>1</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>7327</v>
+        <v>7195</v>
       </c>
       <c r="B508" t="n">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>7329</v>
+        <v>7200</v>
       </c>
       <c r="B509" t="n">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>7332</v>
+        <v>7204</v>
       </c>
       <c r="B510" t="n">
         <v>1</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>7343</v>
+        <v>7215</v>
       </c>
       <c r="B511" t="n">
         <v>1</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>7352</v>
+        <v>7217</v>
       </c>
       <c r="B512" t="n">
         <v>1</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>7357</v>
+        <v>7219</v>
       </c>
       <c r="B513" t="n">
         <v>1</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>7364</v>
+        <v>7220</v>
       </c>
       <c r="B514" t="n">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>7379</v>
+        <v>7225</v>
       </c>
       <c r="B515" t="n">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>7381</v>
+        <v>7229</v>
       </c>
       <c r="B516" t="n">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>7386</v>
+        <v>7233</v>
       </c>
       <c r="B517" t="n">
         <v>1</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>7389</v>
+        <v>7264</v>
       </c>
       <c r="B518" t="n">
         <v>1</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>2985</v>
+        <v>7270</v>
       </c>
       <c r="B519" t="n">
         <v>1</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>7410</v>
+        <v>7275</v>
       </c>
       <c r="B520" t="n">
         <v>1</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>3001</v>
+        <v>7285</v>
       </c>
       <c r="B521" t="n">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>7416</v>
+        <v>7297</v>
       </c>
       <c r="B522" t="n">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>7420</v>
+        <v>7298</v>
       </c>
       <c r="B523" t="n">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>3015</v>
+        <v>7303</v>
       </c>
       <c r="B524" t="n">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>7429</v>
+        <v>7307</v>
       </c>
       <c r="B525" t="n">
         <v>1</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>7450</v>
+        <v>7309</v>
       </c>
       <c r="B526" t="n">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>7456</v>
+        <v>7310</v>
       </c>
       <c r="B527" t="n">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>7459</v>
+        <v>7322</v>
       </c>
       <c r="B528" t="n">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>7461</v>
+        <v>7327</v>
       </c>
       <c r="B529" t="n">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>7463</v>
+        <v>7329</v>
       </c>
       <c r="B530" t="n">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>7471</v>
+        <v>7332</v>
       </c>
       <c r="B531" t="n">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>7475</v>
+        <v>7343</v>
       </c>
       <c r="B532" t="n">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>7478</v>
+        <v>7352</v>
       </c>
       <c r="B533" t="n">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>3082</v>
+        <v>7357</v>
       </c>
       <c r="B534" t="n">
         <v>1</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>7498</v>
+        <v>7364</v>
       </c>
       <c r="B535" t="n">
         <v>1</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>7507</v>
+        <v>7379</v>
       </c>
       <c r="B536" t="n">
         <v>1</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>7508</v>
+        <v>7381</v>
       </c>
       <c r="B537" t="n">
         <v>1</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>7514</v>
+        <v>7386</v>
       </c>
       <c r="B538" t="n">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>7515</v>
+        <v>7389</v>
       </c>
       <c r="B539" t="n">
         <v>1</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>7528</v>
+        <v>7410</v>
       </c>
       <c r="B540" t="n">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>7529</v>
+        <v>7416</v>
       </c>
       <c r="B541" t="n">
         <v>1</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>7532</v>
+        <v>7420</v>
       </c>
       <c r="B542" t="n">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>7533</v>
+        <v>7429</v>
       </c>
       <c r="B543" t="n">
         <v>1</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>7536</v>
+        <v>7450</v>
       </c>
       <c r="B544" t="n">
         <v>1</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>7546</v>
+        <v>7456</v>
       </c>
       <c r="B545" t="n">
         <v>1</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>7550</v>
+        <v>7459</v>
       </c>
       <c r="B546" t="n">
         <v>1</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>7556</v>
+        <v>7461</v>
       </c>
       <c r="B547" t="n">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>7562</v>
+        <v>7463</v>
       </c>
       <c r="B548" t="n">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>7572</v>
+        <v>7471</v>
       </c>
       <c r="B549" t="n">
         <v>1</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>7573</v>
+        <v>7475</v>
       </c>
       <c r="B550" t="n">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>7575</v>
+        <v>7478</v>
       </c>
       <c r="B551" t="n">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>7588</v>
+        <v>7498</v>
       </c>
       <c r="B552" t="n">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>7597</v>
+        <v>7507</v>
       </c>
       <c r="B553" t="n">
         <v>1</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>7606</v>
+        <v>7508</v>
       </c>
       <c r="B554" t="n">
         <v>1</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>7607</v>
+        <v>7514</v>
       </c>
       <c r="B555" t="n">
         <v>1</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>7618</v>
+        <v>7515</v>
       </c>
       <c r="B556" t="n">
         <v>1</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>7621</v>
+        <v>7528</v>
       </c>
       <c r="B557" t="n">
         <v>1</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>7633</v>
+        <v>7529</v>
       </c>
       <c r="B558" t="n">
         <v>1</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>7640</v>
+        <v>7532</v>
       </c>
       <c r="B559" t="n">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>7655</v>
+        <v>7533</v>
       </c>
       <c r="B560" t="n">
         <v>1</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>7659</v>
+        <v>7536</v>
       </c>
       <c r="B561" t="n">
         <v>1</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>7661</v>
+        <v>7546</v>
       </c>
       <c r="B562" t="n">
         <v>1</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>7666</v>
+        <v>7550</v>
       </c>
       <c r="B563" t="n">
         <v>1</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>7678</v>
+        <v>7556</v>
       </c>
       <c r="B564" t="n">
         <v>1</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>7682</v>
+        <v>7562</v>
       </c>
       <c r="B565" t="n">
         <v>1</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>7684</v>
+        <v>7572</v>
       </c>
       <c r="B566" t="n">
         <v>1</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>7688</v>
+        <v>7573</v>
       </c>
       <c r="B567" t="n">
         <v>1</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>7691</v>
+        <v>7575</v>
       </c>
       <c r="B568" t="n">
         <v>1</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>7700</v>
+        <v>7588</v>
       </c>
       <c r="B569" t="n">
         <v>1</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>7701</v>
+        <v>7597</v>
       </c>
       <c r="B570" t="n">
         <v>1</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>7707</v>
+        <v>7606</v>
       </c>
       <c r="B571" t="n">
         <v>1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>3303</v>
+        <v>7607</v>
       </c>
       <c r="B572" t="n">
         <v>1</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>3306</v>
+        <v>7618</v>
       </c>
       <c r="B573" t="n">
         <v>1</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>7729</v>
+        <v>7621</v>
       </c>
       <c r="B574" t="n">
         <v>1</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>3322</v>
+        <v>7633</v>
       </c>
       <c r="B575" t="n">
         <v>1</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>7738</v>
+        <v>7640</v>
       </c>
       <c r="B576" t="n">
         <v>1</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>7749</v>
+        <v>7655</v>
       </c>
       <c r="B577" t="n">
         <v>1</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>7753</v>
+        <v>7659</v>
       </c>
       <c r="B578" t="n">
         <v>1</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>7755</v>
+        <v>7661</v>
       </c>
       <c r="B579" t="n">
         <v>1</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>7756</v>
+        <v>7666</v>
       </c>
       <c r="B580" t="n">
         <v>1</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>7759</v>
+        <v>7678</v>
       </c>
       <c r="B581" t="n">
         <v>1</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>7760</v>
+        <v>7682</v>
       </c>
       <c r="B582" t="n">
         <v>1</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>7762</v>
+        <v>7684</v>
       </c>
       <c r="B583" t="n">
         <v>1</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>7776</v>
+        <v>7688</v>
       </c>
       <c r="B584" t="n">
         <v>1</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>7781</v>
+        <v>7691</v>
       </c>
       <c r="B585" t="n">
         <v>1</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>7782</v>
+        <v>7700</v>
       </c>
       <c r="B586" t="n">
         <v>1</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>7786</v>
+        <v>7701</v>
       </c>
       <c r="B587" t="n">
         <v>1</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>7788</v>
+        <v>7707</v>
       </c>
       <c r="B588" t="n">
         <v>1</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>7793</v>
+        <v>7729</v>
       </c>
       <c r="B589" t="n">
         <v>1</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>7799</v>
+        <v>7738</v>
       </c>
       <c r="B590" t="n">
         <v>1</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>7802</v>
+        <v>7749</v>
       </c>
       <c r="B591" t="n">
         <v>1</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>7804</v>
+        <v>7753</v>
       </c>
       <c r="B592" t="n">
         <v>1</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>7813</v>
+        <v>7755</v>
       </c>
       <c r="B593" t="n">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>7818</v>
+        <v>7756</v>
       </c>
       <c r="B594" t="n">
         <v>1</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>7824</v>
+        <v>7759</v>
       </c>
       <c r="B595" t="n">
         <v>1</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>7825</v>
+        <v>7760</v>
       </c>
       <c r="B596" t="n">
         <v>1</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>7837</v>
+        <v>7762</v>
       </c>
       <c r="B597" t="n">
         <v>1</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>7841</v>
+        <v>7776</v>
       </c>
       <c r="B598" t="n">
         <v>1</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>7842</v>
+        <v>7781</v>
       </c>
       <c r="B599" t="n">
         <v>1</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>7845</v>
+        <v>7782</v>
       </c>
       <c r="B600" t="n">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>7854</v>
+        <v>7786</v>
       </c>
       <c r="B601" t="n">
         <v>1</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>7855</v>
+        <v>7788</v>
       </c>
       <c r="B602" t="n">
         <v>1</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>7869</v>
+        <v>7793</v>
       </c>
       <c r="B603" t="n">
         <v>1</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>7870</v>
+        <v>7799</v>
       </c>
       <c r="B604" t="n">
         <v>1</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>7872</v>
+        <v>7802</v>
       </c>
       <c r="B605" t="n">
         <v>1</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>7873</v>
+        <v>7804</v>
       </c>
       <c r="B606" t="n">
         <v>1</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>7882</v>
+        <v>7813</v>
       </c>
       <c r="B607" t="n">
         <v>1</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>7884</v>
+        <v>7818</v>
       </c>
       <c r="B608" t="n">
         <v>1</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>7885</v>
+        <v>7824</v>
       </c>
       <c r="B609" t="n">
         <v>1</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>7889</v>
+        <v>7825</v>
       </c>
       <c r="B610" t="n">
         <v>1</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>7890</v>
+        <v>7837</v>
       </c>
       <c r="B611" t="n">
         <v>1</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>7891</v>
+        <v>7841</v>
       </c>
       <c r="B612" t="n">
         <v>1</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>7893</v>
+        <v>7842</v>
       </c>
       <c r="B613" t="n">
         <v>1</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>7894</v>
+        <v>7845</v>
       </c>
       <c r="B614" t="n">
         <v>1</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>7906</v>
+        <v>7854</v>
       </c>
       <c r="B615" t="n">
         <v>1</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>7921</v>
+        <v>7855</v>
       </c>
       <c r="B616" t="n">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>7922</v>
+        <v>7869</v>
       </c>
       <c r="B617" t="n">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>7924</v>
+        <v>7870</v>
       </c>
       <c r="B618" t="n">
         <v>1</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>7929</v>
+        <v>7872</v>
       </c>
       <c r="B619" t="n">
         <v>1</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>7931</v>
+        <v>7873</v>
       </c>
       <c r="B620" t="n">
         <v>1</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>7935</v>
+        <v>7882</v>
       </c>
       <c r="B621" t="n">
         <v>1</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>7942</v>
+        <v>7884</v>
       </c>
       <c r="B622" t="n">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>7950</v>
+        <v>7885</v>
       </c>
       <c r="B623" t="n">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>7953</v>
+        <v>7889</v>
       </c>
       <c r="B624" t="n">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>7957</v>
+        <v>7890</v>
       </c>
       <c r="B625" t="n">
         <v>1</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>7964</v>
+        <v>7891</v>
       </c>
       <c r="B626" t="n">
         <v>1</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>7985</v>
+        <v>7893</v>
       </c>
       <c r="B627" t="n">
         <v>1</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>8004</v>
+        <v>7894</v>
       </c>
       <c r="B628" t="n">
         <v>1</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>8006</v>
+        <v>7906</v>
       </c>
       <c r="B629" t="n">
         <v>1</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>8008</v>
+        <v>7921</v>
       </c>
       <c r="B630" t="n">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>8021</v>
+        <v>7922</v>
       </c>
       <c r="B631" t="n">
         <v>1</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>8025</v>
+        <v>7924</v>
       </c>
       <c r="B632" t="n">
         <v>1</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>8032</v>
+        <v>7929</v>
       </c>
       <c r="B633" t="n">
         <v>1</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>8033</v>
+        <v>7931</v>
       </c>
       <c r="B634" t="n">
         <v>1</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>8039</v>
+        <v>7935</v>
       </c>
       <c r="B635" t="n">
         <v>1</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>8040</v>
+        <v>7942</v>
       </c>
       <c r="B636" t="n">
         <v>1</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>8046</v>
+        <v>7950</v>
       </c>
       <c r="B637" t="n">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>8059</v>
+        <v>7953</v>
       </c>
       <c r="B638" t="n">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>8068</v>
+        <v>7957</v>
       </c>
       <c r="B639" t="n">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>8073</v>
+        <v>7964</v>
       </c>
       <c r="B640" t="n">
         <v>1</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>8074</v>
+        <v>7985</v>
       </c>
       <c r="B641" t="n">
         <v>1</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>8078</v>
+        <v>8004</v>
       </c>
       <c r="B642" t="n">
         <v>1</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>3673</v>
+        <v>8006</v>
       </c>
       <c r="B643" t="n">
         <v>1</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>3674</v>
+        <v>8008</v>
       </c>
       <c r="B644" t="n">
         <v>1</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>8090</v>
+        <v>8021</v>
       </c>
       <c r="B645" t="n">
         <v>1</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>3687</v>
+        <v>8025</v>
       </c>
       <c r="B646" t="n">
         <v>1</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>8099</v>
+        <v>8032</v>
       </c>
       <c r="B647" t="n">
         <v>1</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>8100</v>
+        <v>8033</v>
       </c>
       <c r="B648" t="n">
         <v>1</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>8105</v>
+        <v>8039</v>
       </c>
       <c r="B649" t="n">
         <v>1</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>8109</v>
+        <v>8040</v>
       </c>
       <c r="B650" t="n">
         <v>1</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>8114</v>
+        <v>8046</v>
       </c>
       <c r="B651" t="n">
         <v>1</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>8124</v>
+        <v>8059</v>
       </c>
       <c r="B652" t="n">
         <v>1</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>8125</v>
+        <v>8068</v>
       </c>
       <c r="B653" t="n">
         <v>1</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>8126</v>
+        <v>8073</v>
       </c>
       <c r="B654" t="n">
         <v>1</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>8129</v>
+        <v>8074</v>
       </c>
       <c r="B655" t="n">
         <v>1</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>8132</v>
+        <v>8078</v>
       </c>
       <c r="B656" t="n">
         <v>1</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>8149</v>
+        <v>8090</v>
       </c>
       <c r="B657" t="n">
         <v>1</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>8150</v>
+        <v>8099</v>
       </c>
       <c r="B658" t="n">
         <v>1</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>8151</v>
+        <v>8100</v>
       </c>
       <c r="B659" t="n">
         <v>1</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>8153</v>
+        <v>8105</v>
       </c>
       <c r="B660" t="n">
         <v>1</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>3749</v>
+        <v>8109</v>
       </c>
       <c r="B661" t="n">
         <v>1</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>3750</v>
+        <v>8114</v>
       </c>
       <c r="B662" t="n">
         <v>1</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>8161</v>
+        <v>8124</v>
       </c>
       <c r="B663" t="n">
         <v>1</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>8170</v>
+        <v>8125</v>
       </c>
       <c r="B664" t="n">
         <v>1</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>8176</v>
+        <v>8126</v>
       </c>
       <c r="B665" t="n">
         <v>1</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>8178</v>
+        <v>8129</v>
       </c>
       <c r="B666" t="n">
         <v>1</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>8199</v>
+        <v>8132</v>
       </c>
       <c r="B667" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>8203</v>
+        <v>8149</v>
       </c>
       <c r="B668" t="n">
         <v>1</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>8204</v>
+        <v>8150</v>
       </c>
       <c r="B669" t="n">
         <v>1</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>8205</v>
+        <v>8151</v>
       </c>
       <c r="B670" t="n">
         <v>1</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>3815</v>
+        <v>8153</v>
       </c>
       <c r="B671" t="n">
         <v>1</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>8229</v>
+        <v>8161</v>
       </c>
       <c r="B672" t="n">
         <v>1</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>8246</v>
+        <v>8170</v>
       </c>
       <c r="B673" t="n">
         <v>1</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>8255</v>
+        <v>8176</v>
       </c>
       <c r="B674" t="n">
         <v>1</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>8260</v>
+        <v>8178</v>
       </c>
       <c r="B675" t="n">
         <v>1</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>8264</v>
+        <v>8199</v>
       </c>
       <c r="B676" t="n">
         <v>1</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>8279</v>
+        <v>8203</v>
       </c>
       <c r="B677" t="n">
         <v>1</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>3876</v>
+        <v>8204</v>
       </c>
       <c r="B678" t="n">
         <v>1</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>8294</v>
+        <v>8205</v>
       </c>
       <c r="B679" t="n">
         <v>1</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>8297</v>
+        <v>8229</v>
       </c>
       <c r="B680" t="n">
         <v>1</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>8298</v>
+        <v>8246</v>
       </c>
       <c r="B681" t="n">
         <v>1</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>8306</v>
+        <v>8255</v>
       </c>
       <c r="B682" t="n">
         <v>1</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>8315</v>
+        <v>8260</v>
       </c>
       <c r="B683" t="n">
         <v>1</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>8316</v>
+        <v>8264</v>
       </c>
       <c r="B684" t="n">
         <v>1</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>8329</v>
+        <v>8279</v>
       </c>
       <c r="B685" t="n">
         <v>1</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>8330</v>
+        <v>8294</v>
       </c>
       <c r="B686" t="n">
         <v>1</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>8339</v>
+        <v>8297</v>
       </c>
       <c r="B687" t="n">
         <v>1</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>8342</v>
+        <v>8298</v>
       </c>
       <c r="B688" t="n">
         <v>1</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>8348</v>
+        <v>8306</v>
       </c>
       <c r="B689" t="n">
         <v>1</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>8350</v>
+        <v>8315</v>
       </c>
       <c r="B690" t="n">
         <v>1</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>8355</v>
+        <v>8316</v>
       </c>
       <c r="B691" t="n">
         <v>1</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>8364</v>
+        <v>8329</v>
       </c>
       <c r="B692" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>8366</v>
+        <v>8330</v>
       </c>
       <c r="B693" t="n">
         <v>1</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>8372</v>
+        <v>8339</v>
       </c>
       <c r="B694" t="n">
         <v>1</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>8374</v>
+        <v>8342</v>
       </c>
       <c r="B695" t="n">
         <v>1</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>8383</v>
+        <v>8348</v>
       </c>
       <c r="B696" t="n">
         <v>1</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>8384</v>
+        <v>8350</v>
       </c>
       <c r="B697" t="n">
         <v>1</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>8390</v>
+        <v>8355</v>
       </c>
       <c r="B698" t="n">
         <v>1</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>8391</v>
+        <v>8364</v>
       </c>
       <c r="B699" t="n">
         <v>1</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>8405</v>
+        <v>8366</v>
       </c>
       <c r="B700" t="n">
         <v>1</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>8406</v>
+        <v>8372</v>
       </c>
       <c r="B701" t="n">
         <v>1</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>8419</v>
+        <v>8374</v>
       </c>
       <c r="B702" t="n">
         <v>1</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>8425</v>
+        <v>8383</v>
       </c>
       <c r="B703" t="n">
         <v>1</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>8426</v>
+        <v>8384</v>
       </c>
       <c r="B704" t="n">
         <v>1</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>8431</v>
+        <v>8390</v>
       </c>
       <c r="B705" t="n">
         <v>1</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>8432</v>
+        <v>8391</v>
       </c>
       <c r="B706" t="n">
         <v>1</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>8446</v>
+        <v>8405</v>
       </c>
       <c r="B707" t="n">
         <v>1</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>8447</v>
+        <v>8406</v>
       </c>
       <c r="B708" t="n">
         <v>1</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>8458</v>
+        <v>8419</v>
       </c>
       <c r="B709" t="n">
         <v>1</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>8462</v>
+        <v>8425</v>
       </c>
       <c r="B710" t="n">
         <v>1</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>8468</v>
+        <v>8426</v>
       </c>
       <c r="B711" t="n">
         <v>1</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>8472</v>
+        <v>8431</v>
       </c>
       <c r="B712" t="n">
         <v>1</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>4065</v>
+        <v>8432</v>
       </c>
       <c r="B713" t="n">
         <v>1</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>8483</v>
+        <v>8446</v>
       </c>
       <c r="B714" t="n">
         <v>1</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>8488</v>
+        <v>8447</v>
       </c>
       <c r="B715" t="n">
         <v>1</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>8489</v>
+        <v>8458</v>
       </c>
       <c r="B716" t="n">
         <v>1</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>4109</v>
+        <v>8462</v>
       </c>
       <c r="B717" t="n">
         <v>1</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>8531</v>
+        <v>8468</v>
       </c>
       <c r="B718" t="n">
         <v>1</v>
@@ -6183,7 +6183,7 @@
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>8535</v>
+        <v>8472</v>
       </c>
       <c r="B719" t="n">
         <v>1</v>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>8537</v>
+        <v>8483</v>
       </c>
       <c r="B720" t="n">
         <v>1</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>8545</v>
+        <v>8488</v>
       </c>
       <c r="B721" t="n">
         <v>1</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>4143</v>
+        <v>8489</v>
       </c>
       <c r="B722" t="n">
         <v>1</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>8554</v>
+        <v>8531</v>
       </c>
       <c r="B723" t="n">
         <v>1</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>8563</v>
+        <v>8535</v>
       </c>
       <c r="B724" t="n">
         <v>1</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>8565</v>
+        <v>8537</v>
       </c>
       <c r="B725" t="n">
         <v>1</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>8577</v>
+        <v>8545</v>
       </c>
       <c r="B726" t="n">
         <v>1</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>8584</v>
+        <v>8554</v>
       </c>
       <c r="B727" t="n">
         <v>1</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>8587</v>
+        <v>8563</v>
       </c>
       <c r="B728" t="n">
         <v>1</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>8589</v>
+        <v>8565</v>
       </c>
       <c r="B729" t="n">
         <v>1</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>8596</v>
+        <v>8577</v>
       </c>
       <c r="B730" t="n">
         <v>1</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>8597</v>
+        <v>8584</v>
       </c>
       <c r="B731" t="n">
         <v>1</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>4192</v>
+        <v>8587</v>
       </c>
       <c r="B732" t="n">
         <v>1</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>8605</v>
+        <v>8589</v>
       </c>
       <c r="B733" t="n">
         <v>1</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>8608</v>
+        <v>8596</v>
       </c>
       <c r="B734" t="n">
         <v>1</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>8613</v>
+        <v>8597</v>
       </c>
       <c r="B735" t="n">
         <v>1</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>8614</v>
+        <v>8605</v>
       </c>
       <c r="B736" t="n">
         <v>1</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>4220</v>
+        <v>8608</v>
       </c>
       <c r="B737" t="n">
         <v>1</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>8632</v>
+        <v>8613</v>
       </c>
       <c r="B738" t="n">
         <v>1</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>4225</v>
+        <v>8614</v>
       </c>
       <c r="B739" t="n">
         <v>1</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>8652</v>
+        <v>8632</v>
       </c>
       <c r="B740" t="n">
         <v>1</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>8663</v>
+        <v>8652</v>
       </c>
       <c r="B741" t="n">
         <v>1</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>8665</v>
+        <v>8663</v>
       </c>
       <c r="B742" t="n">
         <v>1</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>8670</v>
+        <v>8665</v>
       </c>
       <c r="B743" t="n">
         <v>1</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>8674</v>
+        <v>8670</v>
       </c>
       <c r="B744" t="n">
         <v>1</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>8685</v>
+        <v>8674</v>
       </c>
       <c r="B745" t="n">
         <v>1</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>8687</v>
+        <v>8685</v>
       </c>
       <c r="B746" t="n">
         <v>1</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>8689</v>
+        <v>8687</v>
       </c>
       <c r="B747" t="n">
         <v>1</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>8690</v>
+        <v>8689</v>
       </c>
       <c r="B748" t="n">
         <v>1</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>8695</v>
+        <v>8690</v>
       </c>
       <c r="B749" t="n">
         <v>1</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>8699</v>
+        <v>8695</v>
       </c>
       <c r="B750" t="n">
         <v>1</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>8703</v>
+        <v>8699</v>
       </c>
       <c r="B751" t="n">
         <v>1</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>8734</v>
+        <v>8703</v>
       </c>
       <c r="B752" t="n">
         <v>1</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>8740</v>
+        <v>8734</v>
       </c>
       <c r="B753" t="n">
         <v>1</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>8745</v>
+        <v>8740</v>
       </c>
       <c r="B754" t="n">
         <v>1</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>4337</v>
+        <v>8745</v>
       </c>
       <c r="B755" t="n">
         <v>1</v>
